--- a/Grade 2018/Class Test/CT_Summary_ZW_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_ZW_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B5BF6C-CC75-432E-9C2D-EC518DF53596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA68A4E5-97FE-4687-B8E9-6CAE31363B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="461">
   <si>
     <t>Student Details</t>
   </si>
@@ -1413,6 +1413,12 @@
   </si>
   <si>
     <t>Jack  Cai</t>
+  </si>
+  <si>
+    <t>田嘉喜</t>
+  </si>
+  <si>
+    <t>Dream</t>
   </si>
 </sst>
 </file>
@@ -1917,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3037,13 +3043,13 @@
         <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="D45" s="10">
-        <v>12017245779</v>
+        <v>12016246281</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -3051,6 +3057,31 @@
       <c r="I45" s="11"/>
       <c r="J45" s="12" t="e">
         <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D46" s="10">
+        <v>12017245779</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12" t="e">
+        <f t="shared" ref="J46" si="2">AVERAGE(F46:I46)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5288,8 +5319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E41"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Grade 2018/Class Test/CT_Summary_ZW_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_ZW_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\Class Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niit\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B5BF6C-CC75-432E-9C2D-EC518DF53596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F48CCF9-4541-466D-B2EB-B9FC7A86DC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NIIT1!$A$2:$J$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NIIT2!$A$2:$J$39</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="459">
   <si>
     <t>Student Details</t>
   </si>
@@ -1420,20 +1420,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1447,14 +1447,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1462,7 +1462,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1472,6 +1472,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1604,10 +1611,10 @@
     <xf numFmtId="1" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,7 +1643,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1923,7 +1930,7 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
@@ -1936,7 +1943,7 @@
     <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1959,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -2004,7 +2011,7 @@
       </c>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2029,7 +2036,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2054,7 +2061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2079,7 +2086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2104,7 +2111,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2129,7 +2136,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2154,7 +2161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2179,7 +2186,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2229,7 +2236,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2254,7 +2261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2279,7 +2286,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2304,7 +2311,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2329,7 +2336,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2354,7 +2361,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2404,7 +2411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2429,7 +2436,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2479,7 +2486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2504,7 +2511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2529,7 +2536,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2554,7 +2561,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2579,7 +2586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2604,7 +2611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2629,7 +2636,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2654,7 +2661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2679,7 +2686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2704,7 +2711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2729,7 +2736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2754,7 +2761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2779,7 +2786,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2829,7 +2836,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2854,7 +2861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -2904,7 +2911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -2929,7 +2936,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -2954,7 +2961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -2979,7 +2986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3029,7 +3036,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3070,6 +3077,7 @@
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -3083,11 +3091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
@@ -3100,7 +3108,7 @@
     <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3116,7 +3124,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -3148,14 +3156,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="17"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+      <c r="F3" s="3">
+        <v>44094</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -3168,7 +3176,7 @@
       </c>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3184,16 +3192,18 @@
       <c r="E4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11">
+        <v>10</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="12" t="e">
+      <c r="J4" s="12">
         <f t="shared" ref="J4:J40" si="0">AVERAGE(F4:I4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3209,16 +3219,18 @@
       <c r="E5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>10</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3234,16 +3246,18 @@
       <c r="E6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11">
+        <v>10</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3259,16 +3273,18 @@
       <c r="E7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11">
+        <v>10</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3284,16 +3300,18 @@
       <c r="E8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11">
+        <v>10</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3309,16 +3327,18 @@
       <c r="E9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>10</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3334,16 +3354,18 @@
       <c r="E10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11">
+        <v>10</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3359,16 +3381,18 @@
       <c r="E11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>10</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3384,16 +3408,18 @@
       <c r="E12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11">
+        <v>10</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3409,16 +3435,18 @@
       <c r="E13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11">
+        <v>10</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3434,16 +3462,18 @@
       <c r="E14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>10</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3459,16 +3489,18 @@
       <c r="E15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <v>10</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3484,16 +3516,18 @@
       <c r="E16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11">
+        <v>10</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3509,16 +3543,18 @@
       <c r="E17" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <v>10</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3534,16 +3570,18 @@
       <c r="E18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11">
+        <v>10</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3559,16 +3597,18 @@
       <c r="E19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="11">
+        <v>10</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3584,16 +3624,18 @@
       <c r="E20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11">
+        <v>10</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3609,16 +3651,18 @@
       <c r="E21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11">
+        <v>10</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3634,16 +3678,18 @@
       <c r="E22" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11">
+        <v>10</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3659,16 +3705,18 @@
       <c r="E23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="11">
+        <v>10</v>
+      </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3684,16 +3732,18 @@
       <c r="E24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3709,16 +3759,18 @@
       <c r="E25" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="11">
+        <v>10</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3734,16 +3786,18 @@
       <c r="E26" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="11">
+        <v>10</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3759,16 +3813,18 @@
       <c r="E27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="11">
+        <v>10</v>
+      </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3784,16 +3840,18 @@
       <c r="E28" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="11">
+        <v>10</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3809,16 +3867,18 @@
       <c r="E29" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="11">
+        <v>10</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3834,16 +3894,18 @@
       <c r="E30" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="11">
+        <v>10</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3859,16 +3921,18 @@
       <c r="E31" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="11">
+        <v>10</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3884,16 +3948,18 @@
       <c r="E32" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="11">
+        <v>10</v>
+      </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3909,16 +3975,18 @@
       <c r="E33" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="11">
+        <v>10</v>
+      </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3934,16 +4002,18 @@
       <c r="E34" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="11">
+        <v>10</v>
+      </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3959,16 +4029,18 @@
       <c r="E35" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="11">
+        <v>10</v>
+      </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J35" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3984,16 +4056,18 @@
       <c r="E36" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="11">
+        <v>10</v>
+      </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4009,16 +4083,18 @@
       <c r="E37" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="11">
+        <v>10</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4034,16 +4110,18 @@
       <c r="E38" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="11">
+        <v>10</v>
+      </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J38" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4059,16 +4137,18 @@
       <c r="E39" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="11">
+        <v>10</v>
+      </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J39" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4084,16 +4164,18 @@
       <c r="E40" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="11">
+        <v>10</v>
+      </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4109,16 +4191,18 @@
       <c r="E41" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="11">
+        <v>10</v>
+      </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="12" t="e">
+      <c r="J41" s="12">
         <f t="shared" ref="J41:J43" si="1">AVERAGE(F41:I41)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4134,16 +4218,18 @@
       <c r="E42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="11">
+        <v>10</v>
+      </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="12" t="e">
+      <c r="J42" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4159,13 +4245,15 @@
       <c r="E43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="11">
+        <v>10</v>
+      </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="12" t="e">
+      <c r="J43" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4184,8 +4272,9 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="I33:I37 I39:I43 F4:I32" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="I33:I37 I39:I43 G4:I32 F4:F43" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
   </dataValidations>
@@ -4202,7 +4291,7 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
@@ -4215,7 +4304,7 @@
     <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4231,7 +4320,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -4263,7 +4352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -4283,7 +4372,7 @@
       </c>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4308,7 +4397,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4333,7 +4422,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4358,7 +4447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4383,7 +4472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4408,7 +4497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -4433,7 +4522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -4458,7 +4547,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4483,7 +4572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -4508,7 +4597,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4533,7 +4622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4558,7 +4647,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4583,7 +4672,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4608,7 +4697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4633,7 +4722,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4658,7 +4747,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4683,7 +4772,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4708,7 +4797,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4733,7 +4822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4758,7 +4847,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4783,7 +4872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4808,7 +4897,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4833,7 +4922,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4858,7 +4947,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4883,7 +4972,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4908,7 +4997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4933,7 +5022,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4958,7 +5047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4983,7 +5072,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5008,7 +5097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5033,7 +5122,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5058,7 +5147,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5083,7 +5172,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -5108,7 +5197,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -5133,7 +5222,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -5158,7 +5247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5183,7 +5272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5208,7 +5297,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5233,7 +5322,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5274,6 +5363,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="I33:I37 F4:I32 I39:I42" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
@@ -5288,11 +5378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E41"/>
+    <sheetView zoomScale="63" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
@@ -5305,7 +5395,7 @@
     <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -5321,7 +5411,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -5353,7 +5443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -5373,7 +5463,7 @@
       </c>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -5398,7 +5488,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -5423,7 +5513,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -5448,7 +5538,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -5473,7 +5563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -5498,7 +5588,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -5523,7 +5613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -5548,7 +5638,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -5573,7 +5663,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -5598,7 +5688,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -5623,7 +5713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -5648,7 +5738,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -5673,7 +5763,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5698,7 +5788,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -5723,7 +5813,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -5748,7 +5838,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -5773,7 +5863,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5798,7 +5888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5823,7 +5913,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5848,7 +5938,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5873,7 +5963,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5898,7 +5988,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5923,7 +6013,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5948,7 +6038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5973,7 +6063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5998,7 +6088,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6023,7 +6113,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6048,7 +6138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6073,7 +6163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6098,7 +6188,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6123,7 +6213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6148,7 +6238,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6173,7 +6263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6198,7 +6288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6223,7 +6313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6248,7 +6338,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -6273,7 +6363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -6298,7 +6388,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6339,6 +6429,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
@@ -6357,7 +6448,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
@@ -6370,7 +6461,7 @@
     <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6386,7 +6477,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -6418,7 +6509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -6438,7 +6529,7 @@
       </c>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6463,7 +6554,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -6488,7 +6579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -6513,7 +6604,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -6538,7 +6629,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -6563,7 +6654,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -6588,7 +6679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -6613,7 +6704,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -6638,7 +6729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -6663,7 +6754,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -6688,7 +6779,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -6713,7 +6804,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -6738,7 +6829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -6763,7 +6854,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -6788,7 +6879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -6813,7 +6904,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -6838,7 +6929,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -6863,7 +6954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -6888,7 +6979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -6913,7 +7004,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -6938,7 +7029,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -6963,7 +7054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6988,7 +7079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -7013,7 +7104,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -7038,7 +7129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -7063,7 +7154,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -7088,7 +7179,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -7113,7 +7204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -7138,7 +7229,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -7163,7 +7254,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -7188,7 +7279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7213,7 +7304,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7238,7 +7329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7263,7 +7354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7288,7 +7379,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7313,7 +7404,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -7354,6 +7445,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="I33:I37 I39 F4:I32" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0400-000001000000}"/>

--- a/Grade 2018/Class Test/CT_Summary_ZW_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_ZW_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niit\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF9126E-CDB8-445C-8522-81BD2AD668C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB2D64C-F44F-4D02-B002-75A5432FCE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1512" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="459">
   <si>
     <t>Student Details</t>
   </si>
@@ -128,1294 +128,1294 @@
     <t>May</t>
   </si>
   <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>韩亚州</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>魏嘉李</t>
+  </si>
+  <si>
+    <t>Christy</t>
+  </si>
+  <si>
+    <t>张娜娜</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>张东顺</t>
+  </si>
+  <si>
+    <t>Dietrich</t>
+  </si>
+  <si>
+    <t>哈烨坤</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>丁源</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>李逸凡</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>张嘉颖</t>
+  </si>
+  <si>
+    <t>Yami</t>
+  </si>
+  <si>
+    <t>贾宁辉</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>周莉</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>马月兰</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>滕国瑞</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>宋晓强</t>
+  </si>
+  <si>
+    <t>Athy</t>
+  </si>
+  <si>
+    <t>胡新兵</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>杨玄</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>康金虎</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>李博</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>祁慧东</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>双雅婷</t>
+  </si>
+  <si>
+    <t>Una</t>
+  </si>
+  <si>
+    <t>杨宁</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>邹业妮</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>薛永帅</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>杨皓</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>夏霄</t>
+  </si>
+  <si>
+    <t>Abe</t>
+  </si>
+  <si>
+    <t>李娜</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>王艳宁</t>
+  </si>
+  <si>
+    <t>Grance</t>
+  </si>
+  <si>
+    <t>李伟</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>虎辉</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>王万文</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>罗磊</t>
+  </si>
+  <si>
+    <t>Andolf</t>
+  </si>
+  <si>
+    <t>康静</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Zhongwei- CC2</t>
+  </si>
+  <si>
+    <t>12018246052</t>
+  </si>
+  <si>
+    <t>Tobey</t>
+  </si>
+  <si>
+    <t>刘丹莉</t>
+  </si>
+  <si>
+    <t>12018246055</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>邓博文</t>
+  </si>
+  <si>
+    <t>12018246056</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>李涛</t>
+  </si>
+  <si>
+    <t>12018246057</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>万里倩</t>
+  </si>
+  <si>
+    <t>12018246058</t>
+  </si>
+  <si>
+    <t>Foam</t>
+  </si>
+  <si>
+    <t>杨隆</t>
+  </si>
+  <si>
+    <t>12018246060</t>
+  </si>
+  <si>
+    <t>马嘉龙</t>
+  </si>
+  <si>
+    <t>12018246062</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>郭瑜麟</t>
+  </si>
+  <si>
+    <t>12018246068</t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t>连源</t>
+  </si>
+  <si>
+    <t>12018246075</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+  </si>
+  <si>
+    <t>12018246076</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>曾玉洁</t>
+  </si>
+  <si>
+    <t>12018246077</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>高雪</t>
+  </si>
+  <si>
+    <t>12018246080</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>马姝昱</t>
+  </si>
+  <si>
+    <t>12018246086</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>王紫瑜</t>
+  </si>
+  <si>
+    <t>12018246090</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>刘德鹏</t>
+  </si>
+  <si>
+    <t>12018246093</t>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t>杨昊</t>
+  </si>
+  <si>
+    <t>12018246096</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>12018246097</t>
+  </si>
+  <si>
+    <t>D.Rose</t>
+  </si>
+  <si>
+    <t>陈嘉炜</t>
+  </si>
+  <si>
+    <t>12018246117</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>雷凯</t>
+  </si>
+  <si>
+    <t>12018246118</t>
+  </si>
+  <si>
+    <t>Karry</t>
+  </si>
+  <si>
+    <t>王鑫峰</t>
+  </si>
+  <si>
+    <t>12018246119</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>牛涛</t>
+  </si>
+  <si>
+    <t>12018246120</t>
+  </si>
+  <si>
+    <t>Saber</t>
+  </si>
+  <si>
+    <t>陈建</t>
+  </si>
+  <si>
+    <t>12018246122</t>
+  </si>
+  <si>
+    <t>Cope</t>
+  </si>
+  <si>
+    <t>张爱国</t>
+  </si>
+  <si>
+    <t>12018246130</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>陈家辉</t>
+  </si>
+  <si>
+    <t>12018246131</t>
+  </si>
+  <si>
+    <t>马世发</t>
+  </si>
+  <si>
+    <t>12018246134</t>
+  </si>
+  <si>
+    <t>Edam</t>
+  </si>
+  <si>
+    <t>12018246138</t>
+  </si>
+  <si>
+    <t>Lilly</t>
+  </si>
+  <si>
+    <t>张一博</t>
+  </si>
+  <si>
+    <t>12018246139</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>王恺</t>
+  </si>
+  <si>
+    <t>12018246144</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>杨博</t>
+  </si>
+  <si>
+    <t>12018246147</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>杨起帆</t>
+  </si>
+  <si>
+    <t>12018246149</t>
+  </si>
+  <si>
+    <t>Alina</t>
+  </si>
+  <si>
+    <t>张龙龙</t>
+  </si>
+  <si>
+    <t>12018246152</t>
+  </si>
+  <si>
+    <t>Dunte</t>
+  </si>
+  <si>
+    <t>马明虎</t>
+  </si>
+  <si>
+    <t>12018246153</t>
+  </si>
+  <si>
+    <t>Derrick</t>
+  </si>
+  <si>
+    <t>李旭通</t>
+  </si>
+  <si>
+    <t>12018246157</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>胡安宁</t>
+  </si>
+  <si>
+    <t>12018246158</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>张慧霞</t>
+  </si>
+  <si>
+    <t>12018246161</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>王晓斌</t>
+  </si>
+  <si>
+    <t>12018246162</t>
+  </si>
+  <si>
+    <t>Breeze</t>
+  </si>
+  <si>
+    <t>谢安国</t>
+  </si>
+  <si>
+    <t>12018246167</t>
+  </si>
+  <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>Zhongwei- CC3</t>
+  </si>
+  <si>
+    <t>范嘉慧</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>徐旺</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>李兴旺</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>杨林凯</t>
+  </si>
+  <si>
+    <t>Suzy</t>
+  </si>
+  <si>
+    <t>田宗宝</t>
+  </si>
+  <si>
+    <t>Terrel</t>
+  </si>
+  <si>
+    <t>禹杰</t>
+  </si>
+  <si>
+    <t>虎娜</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>胡瑞铎</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>秦轲</t>
+  </si>
+  <si>
+    <t>Candy Boy</t>
+  </si>
+  <si>
+    <t>胡阿慧</t>
+  </si>
+  <si>
+    <t>Alisa</t>
+  </si>
+  <si>
+    <t>胡聪山</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>路佳轩</t>
+  </si>
+  <si>
+    <t>Aimee</t>
+  </si>
+  <si>
+    <t>牛健峰</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>朱振</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>赵恬欣</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>徐斌</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>贺海龙</t>
+  </si>
+  <si>
+    <t>Harden</t>
+  </si>
+  <si>
+    <t>王漫</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>苏嘉轩</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>李付迁</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>冯新胜</t>
+  </si>
+  <si>
+    <t>Addie</t>
+  </si>
+  <si>
+    <t>王新文</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>景芮楠</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
+    <t>杨彦曦</t>
+  </si>
+  <si>
+    <t>刘晗</t>
+  </si>
+  <si>
+    <t>Lawis</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>田进虎</t>
+  </si>
+  <si>
+    <t>卢柱</t>
+  </si>
+  <si>
+    <t>Kobe</t>
+  </si>
+  <si>
+    <t>姬委</t>
+  </si>
+  <si>
+    <t>Jameson</t>
+  </si>
+  <si>
+    <t>张盼凤</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>陈芮</t>
+  </si>
+  <si>
+    <t>Selina</t>
+  </si>
+  <si>
+    <t>樊启启</t>
+  </si>
+  <si>
+    <t>Jayden</t>
+  </si>
+  <si>
+    <t>于静龙</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>王荣霞</t>
+  </si>
+  <si>
+    <t>高万富</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>庞卓</t>
+  </si>
+  <si>
+    <t>Katy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 虎小贵</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 王巍</t>
+  </si>
+  <si>
+    <t>Zhongwei- NIIT1</t>
+  </si>
+  <si>
+    <t>张旦东</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>李晨航</t>
+  </si>
+  <si>
+    <t>Kyrie</t>
+  </si>
+  <si>
+    <t>王凯琪</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>贺炜桐</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>陈辉</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>张琰翊</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>黄川</t>
+  </si>
+  <si>
+    <t>Pyke</t>
+  </si>
+  <si>
+    <t>尹海云</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>李九江</t>
+  </si>
+  <si>
+    <t>Lisege</t>
+  </si>
+  <si>
+    <t>王超磊</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>申梦芸</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>孙强</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>李婷婷</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>张骞</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>王志龙</t>
+  </si>
+  <si>
+    <t>王志行</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>刘小芳</t>
+  </si>
+  <si>
+    <t>张祺之</t>
+  </si>
+  <si>
+    <t>Ellison</t>
+  </si>
+  <si>
+    <t>买小芳</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>梁娜</t>
+  </si>
+  <si>
+    <t>Quella</t>
+  </si>
+  <si>
+    <t>赵浩</t>
+  </si>
+  <si>
+    <t>Wosage</t>
+  </si>
+  <si>
+    <t>张永强</t>
+  </si>
+  <si>
+    <t>Zed</t>
+  </si>
+  <si>
+    <t>孙付贵</t>
+  </si>
+  <si>
+    <t>马瑞虎</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>卢莉伟</t>
+  </si>
+  <si>
+    <t>Luse</t>
+  </si>
+  <si>
+    <t>李登龙</t>
+  </si>
+  <si>
+    <t>张翻弟</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>杨彦芃</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>刘娜娜</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>孙虎威</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>鲜少玉</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>王亚男</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>陈昭君</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>王萍</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 王炳刚</t>
+  </si>
+  <si>
+    <t>WZZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 柴潇凤</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Zhongwei- NIIT2</t>
+  </si>
+  <si>
+    <t>杨军</t>
+  </si>
+  <si>
+    <t>12018246202</t>
+  </si>
+  <si>
+    <t>Gerry</t>
+  </si>
+  <si>
+    <t>马富彪</t>
+  </si>
+  <si>
+    <t>12018246209</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>禹鹏强</t>
+  </si>
+  <si>
+    <t>12018246213</t>
+  </si>
+  <si>
+    <t>Jack Yu</t>
+  </si>
+  <si>
+    <t>王政国</t>
+  </si>
+  <si>
+    <t>12018246214</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>唐俊杰</t>
+  </si>
+  <si>
+    <t>12018246216</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>郭晓鹏</t>
+  </si>
+  <si>
+    <t>12018246218</t>
+  </si>
+  <si>
+    <t>赵欣</t>
+  </si>
+  <si>
+    <t>12018246224</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>金丽娜</t>
+  </si>
+  <si>
+    <t>12018246226</t>
+  </si>
+  <si>
+    <t>Linna</t>
+  </si>
+  <si>
+    <t>万龙</t>
+  </si>
+  <si>
+    <t>12018246228</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>麻建萍</t>
+  </si>
+  <si>
+    <t>12018246229</t>
+  </si>
+  <si>
+    <t>王嘉俊</t>
+  </si>
+  <si>
+    <t>12018246230</t>
+  </si>
+  <si>
+    <t>刘丛林</t>
+  </si>
+  <si>
+    <t>12018246231</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>杨林</t>
+  </si>
+  <si>
+    <t>12018246234</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>马虎</t>
+  </si>
+  <si>
+    <t>12018246236</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>王维文</t>
+  </si>
+  <si>
+    <t>12018246237</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>马锦秀</t>
+  </si>
+  <si>
+    <t>12018246239</t>
+  </si>
+  <si>
+    <t>刘霞</t>
+  </si>
+  <si>
+    <t>12018246240</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>郭君</t>
+  </si>
+  <si>
+    <t>12018246242</t>
+  </si>
+  <si>
+    <t>Abby</t>
+  </si>
+  <si>
+    <t>王宜轩</t>
+  </si>
+  <si>
+    <t>12018246246</t>
+  </si>
+  <si>
+    <t>Enzo</t>
+  </si>
+  <si>
+    <t>陈惠兄</t>
+  </si>
+  <si>
+    <t>12018246247</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>郭斌</t>
+  </si>
+  <si>
+    <t>12018246248</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>周李牧野</t>
+  </si>
+  <si>
+    <t>12018246249</t>
+  </si>
+  <si>
+    <t>马小龙</t>
+  </si>
+  <si>
+    <t>12018246250</t>
+  </si>
+  <si>
+    <t>Gavin</t>
+  </si>
+  <si>
+    <t>潘文伯</t>
+  </si>
+  <si>
+    <t>12018246253</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>李磊</t>
+  </si>
+  <si>
+    <t>12018246254</t>
+  </si>
+  <si>
+    <t>Kirito</t>
+  </si>
+  <si>
+    <t>谢浩</t>
+  </si>
+  <si>
+    <t>12018246256</t>
+  </si>
+  <si>
+    <t>Vickie</t>
+  </si>
+  <si>
+    <t>姬云利</t>
+  </si>
+  <si>
+    <t>12018246258</t>
+  </si>
+  <si>
+    <t>Keira</t>
+  </si>
+  <si>
+    <t>何宁</t>
+  </si>
+  <si>
+    <t>12018246259</t>
+  </si>
+  <si>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>虎园凤</t>
+  </si>
+  <si>
+    <t>12018246260</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>周苗苗</t>
+  </si>
+  <si>
+    <t>12018246264</t>
+  </si>
+  <si>
+    <t>Belinda</t>
+  </si>
+  <si>
+    <t>兰志成</t>
+  </si>
+  <si>
+    <t>12018246266</t>
+  </si>
+  <si>
+    <t>Glasses</t>
+  </si>
+  <si>
+    <t>晁显</t>
+  </si>
+  <si>
+    <t>12018246270</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 马宏</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sam</t>
+  </si>
+  <si>
+    <t>马智慧</t>
+  </si>
+  <si>
+    <t>王启宏</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 安继奎</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johnson</t>
+  </si>
+  <si>
+    <t>虎登发</t>
+  </si>
+  <si>
+    <t>李嘉鹏</t>
+  </si>
+  <si>
+    <t>Gorden</t>
+  </si>
+  <si>
+    <t>Niko</t>
+  </si>
+  <si>
+    <t>赵连杰</t>
+  </si>
+  <si>
+    <t>史雲霄</t>
+  </si>
+  <si>
+    <t>杨文源</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Kelent</t>
+  </si>
+  <si>
+    <t>周佳宁</t>
+  </si>
+  <si>
+    <t>赵少华</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>段家宝</t>
+  </si>
+  <si>
+    <t>蔡国栋</t>
+  </si>
+  <si>
+    <t>Bazinga</t>
+  </si>
+  <si>
+    <t>Jack  Cai</t>
+  </si>
+  <si>
     <t>李国龙</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>韩亚州</t>
-  </si>
-  <si>
-    <t>Casey</t>
-  </si>
-  <si>
-    <t>魏嘉李</t>
-  </si>
-  <si>
-    <t>Christy</t>
-  </si>
-  <si>
-    <t>张娜娜</t>
-  </si>
-  <si>
-    <t>Ann</t>
-  </si>
-  <si>
-    <t>张东顺</t>
-  </si>
-  <si>
-    <t>Dietrich</t>
-  </si>
-  <si>
-    <t>哈烨坤</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>丁源</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>李逸凡</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>张嘉颖</t>
-  </si>
-  <si>
-    <t>Yami</t>
-  </si>
-  <si>
-    <t>贾宁辉</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>周莉</t>
-  </si>
-  <si>
-    <t>Judy</t>
-  </si>
-  <si>
-    <t>马月兰</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>滕国瑞</t>
-  </si>
-  <si>
-    <t>Snake</t>
-  </si>
-  <si>
-    <t>宋晓强</t>
-  </si>
-  <si>
-    <t>Athy</t>
-  </si>
-  <si>
-    <t>胡新兵</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>杨玄</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>康金虎</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>李博</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>祁慧东</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>双雅婷</t>
-  </si>
-  <si>
-    <t>Una</t>
-  </si>
-  <si>
-    <t>杨宁</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>邹业妮</t>
-  </si>
-  <si>
-    <t>Denise</t>
-  </si>
-  <si>
-    <t>薛永帅</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>杨皓</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>夏霄</t>
-  </si>
-  <si>
-    <t>Abe</t>
-  </si>
-  <si>
-    <t>李娜</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>王艳宁</t>
-  </si>
-  <si>
-    <t>Grance</t>
-  </si>
-  <si>
-    <t>李伟</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>虎辉</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>王万文</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>罗磊</t>
-  </si>
-  <si>
-    <t>Andolf</t>
-  </si>
-  <si>
-    <t>康静</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t>Zhongwei- CC2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>万军</t>
-  </si>
-  <si>
-    <t>12018246052</t>
-  </si>
-  <si>
-    <t>Tobey</t>
-  </si>
-  <si>
-    <t>刘丹莉</t>
-  </si>
-  <si>
-    <t>12018246055</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>邓博文</t>
-  </si>
-  <si>
-    <t>12018246056</t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
-    <t>李涛</t>
-  </si>
-  <si>
-    <t>12018246057</t>
-  </si>
-  <si>
-    <t>Melinda</t>
-  </si>
-  <si>
-    <t>万里倩</t>
-  </si>
-  <si>
-    <t>12018246058</t>
-  </si>
-  <si>
-    <t>Foam</t>
-  </si>
-  <si>
-    <t>杨隆</t>
-  </si>
-  <si>
-    <t>12018246060</t>
-  </si>
-  <si>
-    <t>马嘉龙</t>
-  </si>
-  <si>
-    <t>12018246062</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>郭瑜麟</t>
-  </si>
-  <si>
-    <t>12018246068</t>
-  </si>
-  <si>
-    <t>Angelina</t>
-  </si>
-  <si>
-    <t>连源</t>
-  </si>
-  <si>
-    <t>12018246075</t>
-  </si>
-  <si>
-    <t>Melody</t>
-  </si>
-  <si>
-    <t>王鹏</t>
-  </si>
-  <si>
-    <t>12018246076</t>
-  </si>
-  <si>
-    <t>Spike</t>
-  </si>
-  <si>
-    <t>曾玉洁</t>
-  </si>
-  <si>
-    <t>12018246077</t>
-  </si>
-  <si>
-    <t>Shiny</t>
-  </si>
-  <si>
-    <t>高雪</t>
-  </si>
-  <si>
-    <t>12018246080</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>马姝昱</t>
-  </si>
-  <si>
-    <t>12018246086</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>王紫瑜</t>
-  </si>
-  <si>
-    <t>12018246090</t>
-  </si>
-  <si>
-    <t>Miranda</t>
-  </si>
-  <si>
-    <t>刘德鹏</t>
-  </si>
-  <si>
-    <t>12018246093</t>
-  </si>
-  <si>
-    <t>Devin</t>
-  </si>
-  <si>
-    <t>杨昊</t>
-  </si>
-  <si>
-    <t>12018246096</t>
-  </si>
-  <si>
-    <t>Eric</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>马佳华</t>
-  </si>
-  <si>
-    <t>12018246097</t>
-  </si>
-  <si>
-    <t>D.Rose</t>
-  </si>
-  <si>
-    <t>陈嘉炜</t>
-  </si>
-  <si>
-    <t>12018246117</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>雷凯</t>
-  </si>
-  <si>
-    <t>12018246118</t>
-  </si>
-  <si>
-    <t>Karry</t>
-  </si>
-  <si>
-    <t>王鑫峰</t>
-  </si>
-  <si>
-    <t>12018246119</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>牛涛</t>
-  </si>
-  <si>
-    <t>12018246120</t>
-  </si>
-  <si>
-    <t>Saber</t>
-  </si>
-  <si>
-    <t>陈建</t>
-  </si>
-  <si>
-    <t>12018246122</t>
-  </si>
-  <si>
-    <t>Cope</t>
-  </si>
-  <si>
-    <t>张爱国</t>
-  </si>
-  <si>
-    <t>12018246130</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>陈家辉</t>
-  </si>
-  <si>
-    <t>12018246131</t>
-  </si>
-  <si>
-    <t>马世发</t>
-  </si>
-  <si>
-    <t>12018246134</t>
-  </si>
-  <si>
-    <t>Edam</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>王嫣</t>
-  </si>
-  <si>
-    <t>12018246138</t>
-  </si>
-  <si>
-    <t>Lilly</t>
-  </si>
-  <si>
-    <t>张一博</t>
-  </si>
-  <si>
-    <t>12018246139</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>王恺</t>
-  </si>
-  <si>
-    <t>12018246144</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>杨博</t>
-  </si>
-  <si>
-    <t>12018246147</t>
-  </si>
-  <si>
-    <t>Bert</t>
-  </si>
-  <si>
-    <t>杨起帆</t>
-  </si>
-  <si>
-    <t>12018246149</t>
-  </si>
-  <si>
-    <t>Alina</t>
-  </si>
-  <si>
-    <t>张龙龙</t>
-  </si>
-  <si>
-    <t>12018246152</t>
-  </si>
-  <si>
-    <t>Dunte</t>
-  </si>
-  <si>
-    <t>马明虎</t>
-  </si>
-  <si>
-    <t>12018246153</t>
-  </si>
-  <si>
-    <t>Derrick</t>
-  </si>
-  <si>
-    <t>李旭通</t>
-  </si>
-  <si>
-    <t>12018246157</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>胡安宁</t>
-  </si>
-  <si>
-    <t>12018246158</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>张慧霞</t>
-  </si>
-  <si>
-    <t>12018246161</t>
-  </si>
-  <si>
-    <t>Teresa</t>
-  </si>
-  <si>
-    <t>王晓斌</t>
-  </si>
-  <si>
-    <t>12018246162</t>
-  </si>
-  <si>
-    <t>Breeze</t>
-  </si>
-  <si>
-    <t>谢安国</t>
-  </si>
-  <si>
-    <t>12018246167</t>
-  </si>
-  <si>
-    <t>Carson</t>
-  </si>
-  <si>
-    <t>Zhongwei- CC3</t>
-  </si>
-  <si>
-    <t>范嘉慧</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>徐旺</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>李兴旺</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>杨林凯</t>
-  </si>
-  <si>
-    <t>Suzy</t>
-  </si>
-  <si>
-    <t>田宗宝</t>
-  </si>
-  <si>
-    <t>Terrel</t>
-  </si>
-  <si>
-    <t>禹杰</t>
-  </si>
-  <si>
-    <t>虎娜</t>
-  </si>
-  <si>
-    <t>Fern</t>
-  </si>
-  <si>
-    <t>胡瑞铎</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>秦轲</t>
-  </si>
-  <si>
-    <t>Candy Boy</t>
-  </si>
-  <si>
-    <t>胡阿慧</t>
-  </si>
-  <si>
-    <t>Alisa</t>
-  </si>
-  <si>
-    <t>胡聪山</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>路佳轩</t>
-  </si>
-  <si>
-    <t>Aimee</t>
-  </si>
-  <si>
-    <t>牛健峰</t>
-  </si>
-  <si>
-    <t>Haley</t>
-  </si>
-  <si>
-    <t>朱振</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>赵恬欣</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>徐斌</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>贺海龙</t>
-  </si>
-  <si>
-    <t>Harden</t>
-  </si>
-  <si>
-    <t>王漫</t>
-  </si>
-  <si>
-    <t>Carry</t>
-  </si>
-  <si>
-    <t>苏嘉轩</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>李付迁</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>冯新胜</t>
-  </si>
-  <si>
-    <t>Addie</t>
-  </si>
-  <si>
-    <t>王新文</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>景芮楠</t>
-  </si>
-  <si>
-    <t>Renee</t>
-  </si>
-  <si>
-    <t>杨彦曦</t>
-  </si>
-  <si>
-    <t>刘晗</t>
-  </si>
-  <si>
-    <t>Lawis</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>田进虎</t>
-  </si>
-  <si>
-    <t>卢柱</t>
-  </si>
-  <si>
-    <t>Kobe</t>
-  </si>
-  <si>
-    <t>姬委</t>
-  </si>
-  <si>
-    <t>Jameson</t>
-  </si>
-  <si>
-    <t>张盼凤</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>陈芮</t>
-  </si>
-  <si>
-    <t>Selina</t>
-  </si>
-  <si>
-    <t>樊启启</t>
-  </si>
-  <si>
-    <t>Jayden</t>
-  </si>
-  <si>
-    <t>于静龙</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>王荣霞</t>
-  </si>
-  <si>
-    <t>高万富</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>庞卓</t>
-  </si>
-  <si>
-    <t>Katy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 虎小贵</t>
-  </si>
-  <si>
-    <t>Bron</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 王巍</t>
-  </si>
-  <si>
-    <t>Zhongwei- NIIT1</t>
-  </si>
-  <si>
-    <t>张旦东</t>
-  </si>
-  <si>
-    <t>Elvis</t>
-  </si>
-  <si>
-    <t>李晨航</t>
-  </si>
-  <si>
-    <t>Kyrie</t>
-  </si>
-  <si>
-    <t>王凯琪</t>
-  </si>
-  <si>
-    <t>Kathy</t>
-  </si>
-  <si>
-    <t>贺炜桐</t>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>陈辉</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>张琰翊</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
-    <t>黄川</t>
-  </si>
-  <si>
-    <t>Pyke</t>
-  </si>
-  <si>
-    <t>尹海云</t>
-  </si>
-  <si>
-    <t>Ibiza</t>
-  </si>
-  <si>
-    <t>李九江</t>
-  </si>
-  <si>
-    <t>Lisege</t>
-  </si>
-  <si>
-    <t>王超磊</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>申梦芸</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>孙强</t>
-  </si>
-  <si>
-    <t>Eli</t>
-  </si>
-  <si>
-    <t>李婷婷</t>
-  </si>
-  <si>
-    <t>Iris</t>
-  </si>
-  <si>
-    <t>张骞</t>
-  </si>
-  <si>
-    <t>Irving</t>
-  </si>
-  <si>
-    <t>王志龙</t>
-  </si>
-  <si>
-    <t>王志行</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>刘小芳</t>
-  </si>
-  <si>
-    <t>张祺之</t>
-  </si>
-  <si>
-    <t>Ellison</t>
-  </si>
-  <si>
-    <t>买小芳</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>梁娜</t>
-  </si>
-  <si>
-    <t>Quella</t>
-  </si>
-  <si>
-    <t>赵浩</t>
-  </si>
-  <si>
-    <t>Wosage</t>
-  </si>
-  <si>
-    <t>张永强</t>
-  </si>
-  <si>
-    <t>Zed</t>
-  </si>
-  <si>
-    <t>孙付贵</t>
-  </si>
-  <si>
-    <t>马瑞虎</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>卢莉伟</t>
-  </si>
-  <si>
-    <t>Luse</t>
-  </si>
-  <si>
-    <t>李登龙</t>
-  </si>
-  <si>
-    <t>张翻弟</t>
-  </si>
-  <si>
-    <t>Joanna</t>
-  </si>
-  <si>
-    <t>杨彦芃</t>
-  </si>
-  <si>
-    <t>Sunshine</t>
-  </si>
-  <si>
-    <t>刘娜娜</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>孙虎威</t>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>鲜少玉</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>王亚男</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>陈昭君</t>
-  </si>
-  <si>
-    <t>Mia</t>
-  </si>
-  <si>
-    <t>王萍</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 王炳刚</t>
-  </si>
-  <si>
-    <t>WZZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 柴潇凤</t>
-  </si>
-  <si>
-    <t>Tina</t>
-  </si>
-  <si>
-    <t>Zhongwei- NIIT2</t>
-  </si>
-  <si>
-    <t>杨军</t>
-  </si>
-  <si>
-    <t>12018246202</t>
-  </si>
-  <si>
-    <t>Gerry</t>
-  </si>
-  <si>
-    <t>马富彪</t>
-  </si>
-  <si>
-    <t>12018246209</t>
-  </si>
-  <si>
-    <t>Raven</t>
-  </si>
-  <si>
-    <t>禹鹏强</t>
-  </si>
-  <si>
-    <t>12018246213</t>
-  </si>
-  <si>
-    <t>Jack Yu</t>
-  </si>
-  <si>
-    <t>王政国</t>
-  </si>
-  <si>
-    <t>12018246214</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>唐俊杰</t>
-  </si>
-  <si>
-    <t>12018246216</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>郭晓鹏</t>
-  </si>
-  <si>
-    <t>12018246218</t>
-  </si>
-  <si>
-    <t>赵欣</t>
-  </si>
-  <si>
-    <t>12018246224</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>金丽娜</t>
-  </si>
-  <si>
-    <t>12018246226</t>
-  </si>
-  <si>
-    <t>Linna</t>
-  </si>
-  <si>
-    <t>万龙</t>
-  </si>
-  <si>
-    <t>12018246228</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>麻建萍</t>
-  </si>
-  <si>
-    <t>12018246229</t>
-  </si>
-  <si>
-    <t>王嘉俊</t>
-  </si>
-  <si>
-    <t>12018246230</t>
-  </si>
-  <si>
-    <t>刘丛林</t>
-  </si>
-  <si>
-    <t>12018246231</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>杨林</t>
-  </si>
-  <si>
-    <t>12018246234</t>
-  </si>
-  <si>
-    <t>Abel</t>
-  </si>
-  <si>
-    <t>马虎</t>
-  </si>
-  <si>
-    <t>12018246236</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>王维文</t>
-  </si>
-  <si>
-    <t>12018246237</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>马锦秀</t>
-  </si>
-  <si>
-    <t>12018246239</t>
-  </si>
-  <si>
-    <t>刘霞</t>
-  </si>
-  <si>
-    <t>12018246240</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>郭君</t>
-  </si>
-  <si>
-    <t>12018246242</t>
-  </si>
-  <si>
-    <t>Abby</t>
-  </si>
-  <si>
-    <t>王宜轩</t>
-  </si>
-  <si>
-    <t>12018246246</t>
-  </si>
-  <si>
-    <t>Enzo</t>
-  </si>
-  <si>
-    <t>陈惠兄</t>
-  </si>
-  <si>
-    <t>12018246247</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>郭斌</t>
-  </si>
-  <si>
-    <t>12018246248</t>
-  </si>
-  <si>
-    <t>Garland</t>
-  </si>
-  <si>
-    <t>周李牧野</t>
-  </si>
-  <si>
-    <t>12018246249</t>
-  </si>
-  <si>
-    <t>马小龙</t>
-  </si>
-  <si>
-    <t>12018246250</t>
-  </si>
-  <si>
-    <t>Gavin</t>
-  </si>
-  <si>
-    <t>潘文伯</t>
-  </si>
-  <si>
-    <t>12018246253</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t>李磊</t>
-  </si>
-  <si>
-    <t>12018246254</t>
-  </si>
-  <si>
-    <t>Kirito</t>
-  </si>
-  <si>
-    <t>谢浩</t>
-  </si>
-  <si>
-    <t>12018246256</t>
-  </si>
-  <si>
-    <t>Vickie</t>
-  </si>
-  <si>
-    <t>姬云利</t>
-  </si>
-  <si>
-    <t>12018246258</t>
-  </si>
-  <si>
-    <t>Keira</t>
-  </si>
-  <si>
-    <t>何宁</t>
-  </si>
-  <si>
-    <t>12018246259</t>
-  </si>
-  <si>
-    <t>Gina</t>
-  </si>
-  <si>
-    <t>虎园凤</t>
-  </si>
-  <si>
-    <t>12018246260</t>
-  </si>
-  <si>
-    <t>Susan</t>
-  </si>
-  <si>
-    <t>周苗苗</t>
-  </si>
-  <si>
-    <t>12018246264</t>
-  </si>
-  <si>
-    <t>Belinda</t>
-  </si>
-  <si>
-    <t>兰志成</t>
-  </si>
-  <si>
-    <t>12018246266</t>
-  </si>
-  <si>
-    <t>Glasses</t>
-  </si>
-  <si>
-    <t>晁显</t>
-  </si>
-  <si>
-    <t>12018246270</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 马宏</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sam</t>
-  </si>
-  <si>
-    <t>马智慧</t>
-  </si>
-  <si>
-    <t>王启宏</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 安继奎</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Johnson</t>
-  </si>
-  <si>
-    <t>虎登发</t>
-  </si>
-  <si>
-    <t>李嘉鹏</t>
-  </si>
-  <si>
-    <t>Gorden</t>
-  </si>
-  <si>
-    <t>Niko</t>
-  </si>
-  <si>
-    <t>赵连杰</t>
-  </si>
-  <si>
-    <t>史雲霄</t>
-  </si>
-  <si>
-    <t>杨文源</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Kelent</t>
-  </si>
-  <si>
-    <t>周佳宁</t>
-  </si>
-  <si>
-    <t>赵少华</t>
-  </si>
-  <si>
-    <t>Potter</t>
-  </si>
-  <si>
-    <t>Raymond</t>
-  </si>
-  <si>
-    <t>段家宝</t>
-  </si>
-  <si>
-    <t>蔡国栋</t>
-  </si>
-  <si>
-    <t>Bazinga</t>
-  </si>
-  <si>
-    <t>Jack  Cai</t>
-  </si>
-  <si>
-    <t>dd/mm/yy</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1931,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2002,8 +2002,8 @@
       <c r="C3" s="14"/>
       <c r="D3" s="17"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+      <c r="F3" s="3">
+        <v>44117</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -2032,13 +2032,15 @@
       <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11">
+        <v>93</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="12" t="e">
+      <c r="J4" s="12">
         <f t="shared" ref="J4:J43" si="0">AVERAGE(F4:I4)</f>
-        <v>#DIV/0!</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2057,13 +2059,15 @@
       <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>93</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2082,13 +2086,15 @@
       <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11">
+        <v>73</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2107,13 +2113,15 @@
       <c r="E7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11">
+        <v>87</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2132,13 +2140,15 @@
       <c r="E8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11">
+        <v>87</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J8" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2157,13 +2167,15 @@
       <c r="E9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>80</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2182,13 +2194,15 @@
       <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11">
+        <v>87</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J10" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2207,13 +2221,15 @@
       <c r="E11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>87</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J11" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2224,21 +2240,23 @@
         <v>13</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>455</v>
       </c>
       <c r="D12" s="10">
         <v>12018246059</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="11">
+        <v>80</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J12" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2249,21 +2267,23 @@
         <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10">
         <v>12018246063</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="F13" s="11">
+        <v>87</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J13" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2274,21 +2294,23 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10">
         <v>12018246070</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="F14" s="11">
+        <v>87</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J14" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2299,21 +2321,23 @@
         <v>13</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="10">
         <v>12018246079</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="F15" s="11">
+        <v>93</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J15" s="12">
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2324,21 +2348,23 @@
         <v>13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="10">
         <v>12018246082</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="F16" s="11">
+        <v>87</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J16" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2349,21 +2375,23 @@
         <v>13</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="10">
         <v>12018246084</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="F17" s="11">
+        <v>87</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J17" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2374,21 +2402,23 @@
         <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="10">
         <v>12018246091</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="F18" s="11">
+        <v>87</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J18" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2399,21 +2429,23 @@
         <v>13</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="10">
         <v>12018246094</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="F19" s="11">
+        <v>87</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J19" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2424,21 +2456,23 @@
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="10">
         <v>12018246098</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="F20" s="11">
+        <v>87</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J20" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2449,21 +2483,23 @@
         <v>13</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="10">
         <v>12018246102</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F21" s="11">
+        <v>87</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J21" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2474,21 +2510,23 @@
         <v>13</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="10">
         <v>12018246103</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="F22" s="11">
+        <v>87</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J22" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2499,21 +2537,23 @@
         <v>13</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="10">
         <v>12018246106</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="F23" s="11">
+        <v>40</v>
+      </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J23" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2524,21 +2564,23 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="10">
         <v>12018246109</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="F24" s="11">
+        <v>87</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J24" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2549,21 +2591,23 @@
         <v>13</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="10">
         <v>12018246110</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="F25" s="11">
+        <v>87</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J25" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2574,21 +2618,23 @@
         <v>13</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="10">
         <v>12018246112</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="F26" s="11">
+        <v>87</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J26" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2599,21 +2645,23 @@
         <v>13</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="10">
         <v>12018246115</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="F27" s="11">
+        <v>87</v>
+      </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J27" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2624,21 +2672,23 @@
         <v>13</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="10">
         <v>12018246121</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="F28" s="11">
+        <v>87</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J28" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2649,21 +2699,23 @@
         <v>13</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="10">
         <v>12018246124</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="F29" s="11">
+        <v>80</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J29" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2674,21 +2726,23 @@
         <v>13</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="10">
         <v>12018246125</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="F30" s="11">
+        <v>87</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J30" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2699,21 +2753,23 @@
         <v>13</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="10">
         <v>12018246127</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="F31" s="11">
+        <v>87</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J31" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2724,21 +2780,23 @@
         <v>13</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="10">
         <v>12018246129</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="F32" s="11">
+        <v>87</v>
+      </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J32" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2749,21 +2807,23 @@
         <v>13</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="10">
         <v>12018246135</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="F33" s="11">
+        <v>87</v>
+      </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J33" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2774,21 +2834,23 @@
         <v>13</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="10">
         <v>12018246136</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="F34" s="11">
+        <v>80</v>
+      </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J34" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2799,21 +2861,23 @@
         <v>13</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="10">
         <v>12018246137</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="F35" s="11">
+        <v>87</v>
+      </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J35" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2824,13 +2888,13 @@
         <v>13</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="10">
         <v>12018246140</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -2849,21 +2913,23 @@
         <v>13</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="10">
         <v>12018246142</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="F37" s="11">
+        <v>87</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J37" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2874,21 +2940,23 @@
         <v>13</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="10">
         <v>12018246150</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="F38" s="11">
+        <v>87</v>
+      </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J38" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2899,21 +2967,23 @@
         <v>13</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="10">
         <v>12018246159</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="F39" s="11">
+        <v>87</v>
+      </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J39" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2924,21 +2994,23 @@
         <v>13</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="10">
         <v>12018246160</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="F40" s="11">
+        <v>87</v>
+      </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J40" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2949,21 +3021,23 @@
         <v>13</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="10">
         <v>12018246164</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="F41" s="11">
+        <v>87</v>
+      </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J41" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2974,21 +3048,23 @@
         <v>13</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" s="10">
         <v>12018246166</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="F42" s="11">
+        <v>87</v>
+      </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J42" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2999,21 +3075,23 @@
         <v>13</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="10">
         <v>12018246169</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="F43" s="11">
+        <v>87</v>
+      </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J43" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3024,21 +3102,23 @@
         <v>13</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D44" s="10">
         <v>12017245655</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F44" s="11"/>
+        <v>440</v>
+      </c>
+      <c r="F44" s="11">
+        <v>87</v>
+      </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="12" t="e">
+      <c r="J44" s="12">
         <f t="shared" ref="J44:J45" si="1">AVERAGE(F44:I44)</f>
-        <v>#DIV/0!</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -3049,21 +3129,23 @@
         <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D45" s="10">
         <v>12017245779</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="F45" s="11"/>
+        <v>441</v>
+      </c>
+      <c r="F45" s="11">
+        <v>87</v>
+      </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="12" t="e">
+      <c r="J45" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3096,8 +3178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="82" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3167,8 +3249,8 @@
       <c r="C3" s="14"/>
       <c r="D3" s="17"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="3" t="s">
-        <v>459</v>
+      <c r="F3" s="3">
+        <v>44117</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -3186,16 +3268,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -3211,24 +3293,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11">
+        <v>67</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3236,24 +3320,26 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11">
+        <v>100</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3261,24 +3347,26 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11">
+        <v>80</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3286,24 +3374,26 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11">
+        <v>73</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J8" s="12">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3311,24 +3401,26 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F9" s="11">
+        <v>73</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3336,24 +3428,26 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11">
+        <v>67</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J10" s="12">
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3361,24 +3455,26 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>87</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J11" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3386,24 +3482,26 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11">
+        <v>47</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J12" s="12">
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3411,24 +3509,26 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11">
+        <v>53</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J13" s="12">
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3436,24 +3536,26 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>87</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J14" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3461,24 +3563,26 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <v>87</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J15" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3486,24 +3590,26 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11">
+        <v>73</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J16" s="12">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3511,24 +3617,26 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <v>67</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J17" s="12">
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3536,24 +3644,26 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11">
+        <v>80</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J18" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3561,24 +3671,26 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="11">
+        <v>73</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J19" s="12">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3586,16 +3698,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>142</v>
+        <v>457</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -3611,24 +3723,26 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>144</v>
+      </c>
+      <c r="F21" s="11">
+        <v>87</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J21" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3636,24 +3750,26 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="11"/>
+        <v>147</v>
+      </c>
+      <c r="F22" s="11">
+        <v>100</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J22" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3661,24 +3777,26 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="F23" s="11">
+        <v>47</v>
+      </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J23" s="12">
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3686,24 +3804,26 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="F24" s="11">
+        <v>100</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J24" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3711,24 +3831,26 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="F25" s="11">
+        <v>73</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J25" s="12">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3736,24 +3858,26 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="F26" s="11">
+        <v>60</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J26" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3761,24 +3885,26 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="F27" s="11">
+        <v>87</v>
+      </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J27" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3786,24 +3912,26 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="11"/>
+        <v>164</v>
+      </c>
+      <c r="F28" s="11">
+        <v>73</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J28" s="12">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3811,24 +3939,26 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>168</v>
+        <v>458</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="F29" s="11">
+        <v>60</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J29" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3836,24 +3966,26 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="11"/>
+        <v>169</v>
+      </c>
+      <c r="F30" s="11">
+        <v>87</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J30" s="12">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3861,24 +3993,26 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="F31" s="11">
+        <v>67</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J31" s="12">
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3886,24 +4020,26 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="11"/>
+        <v>175</v>
+      </c>
+      <c r="F32" s="11">
+        <v>73</v>
+      </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J32" s="12">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3911,24 +4047,26 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="11"/>
+        <v>178</v>
+      </c>
+      <c r="F33" s="11">
+        <v>80</v>
+      </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J33" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3936,24 +4074,26 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" s="11"/>
+        <v>181</v>
+      </c>
+      <c r="F34" s="11">
+        <v>100</v>
+      </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J34" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3961,24 +4101,26 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F35" s="11"/>
+        <v>184</v>
+      </c>
+      <c r="F35" s="11">
+        <v>53</v>
+      </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J35" s="12">
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3986,24 +4128,26 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" s="11"/>
+        <v>187</v>
+      </c>
+      <c r="F36" s="11">
+        <v>80</v>
+      </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J36" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -4011,24 +4155,26 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="11"/>
+        <v>190</v>
+      </c>
+      <c r="F37" s="11">
+        <v>80</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J37" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -4036,24 +4182,26 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F38" s="11"/>
+        <v>193</v>
+      </c>
+      <c r="F38" s="11">
+        <v>80</v>
+      </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J38" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -4061,24 +4209,26 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="11"/>
+        <v>196</v>
+      </c>
+      <c r="F39" s="11">
+        <v>67</v>
+      </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J39" s="12">
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -4086,24 +4236,26 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="11"/>
+        <v>199</v>
+      </c>
+      <c r="F40" s="11">
+        <v>60</v>
+      </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J40" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -4111,24 +4263,26 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D41" s="5">
         <v>12017245812</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F41" s="11"/>
+        <v>445</v>
+      </c>
+      <c r="F41" s="11">
+        <v>47</v>
+      </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="12" t="e">
+      <c r="J41" s="12">
         <f t="shared" ref="J41:J43" si="1">AVERAGE(F41:I41)</f>
-        <v>#DIV/0!</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -4136,24 +4290,26 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D42" s="5">
         <v>12017245817</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="F42" s="11">
+        <v>40</v>
+      </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="12" t="e">
+      <c r="J42" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -4161,24 +4317,26 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D43" s="5">
         <v>12017245796</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F43" s="11"/>
+        <v>446</v>
+      </c>
+      <c r="F43" s="11">
+        <v>33</v>
+      </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="12" t="e">
+      <c r="J43" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4302,16 +4460,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" s="5">
         <v>12018246061</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -4327,16 +4485,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5">
         <v>12018246065</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -4352,16 +4510,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6" s="5">
         <v>12018246067</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -4377,16 +4535,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D7" s="5">
         <v>12018246069</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -4402,16 +4560,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D8" s="5">
         <v>12018246071</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -4427,16 +4585,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D9" s="5">
         <v>12018246072</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -4452,16 +4610,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D10" s="5">
         <v>12018246073</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -4477,16 +4635,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D11" s="5">
         <v>12018246074</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -4502,16 +4660,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D12" s="5">
         <v>12018246078</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -4527,16 +4685,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D13" s="5">
         <v>12018246083</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -4552,16 +4710,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D14" s="5">
         <v>12018246087</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -4577,16 +4735,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D15" s="5">
         <v>12018246089</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -4602,16 +4760,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D16" s="5">
         <v>12018246092</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -4627,16 +4785,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D17" s="5">
         <v>12018246095</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -4652,16 +4810,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D18" s="5">
         <v>12018246099</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -4677,16 +4835,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D19" s="5">
         <v>12018246100</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -4702,16 +4860,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D20" s="5">
         <v>12018246101</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -4727,16 +4885,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D21" s="5">
         <v>12018246104</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -4752,16 +4910,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D22" s="5">
         <v>12018246105</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -4777,16 +4935,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D23" s="5">
         <v>12018246107</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -4802,16 +4960,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D24" s="5">
         <v>12018246108</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -4827,16 +4985,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D25" s="5">
         <v>12018246111</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -4852,16 +5010,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D26" s="5">
         <v>12018246113</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -4877,16 +5035,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D27" s="5">
         <v>12018246114</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -4902,16 +5060,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D28" s="5">
         <v>12018246126</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -4927,16 +5085,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D29" s="5">
         <v>12018246133</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -4952,16 +5110,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D30" s="5">
         <v>12018246141</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -4977,16 +5135,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D31" s="5">
         <v>12018246146</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -5002,16 +5160,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D32" s="5">
         <v>12018246148</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -5027,16 +5185,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D33" s="5">
         <v>12018246151</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -5052,16 +5210,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D34" s="5">
         <v>12018246154</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -5077,16 +5235,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D35" s="5">
         <v>12018246155</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -5102,16 +5260,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D36" s="5">
         <v>12018246163</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -5127,16 +5285,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D37" s="5">
         <v>12018246165</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -5152,16 +5310,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D38" s="5">
         <v>12018246168</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -5177,16 +5335,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D39" s="5">
         <v>12018245775</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -5202,16 +5360,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D40" s="5">
         <v>12018246548</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -5227,16 +5385,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D41" s="5">
         <v>12017245858</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -5252,16 +5410,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D42" s="5">
         <v>12017245867</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -5393,16 +5551,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D4" s="5">
         <v>12018246201</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -5418,16 +5576,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D5" s="5">
         <v>12018246204</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -5443,16 +5601,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D6" s="5">
         <v>12018246206</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -5468,16 +5626,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D7" s="5">
         <v>12018246207</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -5493,16 +5651,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D8" s="5">
         <v>12018246208</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -5518,16 +5676,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D9" s="5">
         <v>12018246210</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -5543,16 +5701,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D10" s="5">
         <v>12018246212</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -5568,16 +5726,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D11" s="5">
         <v>12018246215</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5593,16 +5751,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D12" s="5">
         <v>12018246217</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -5618,16 +5776,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D13" s="5">
         <v>12018246219</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -5643,16 +5801,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D14" s="5">
         <v>12018246220</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -5668,16 +5826,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D15" s="5">
         <v>12018246221</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -5693,16 +5851,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D16" s="5">
         <v>12018246222</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -5718,16 +5876,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D17" s="5">
         <v>12018246223</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -5743,16 +5901,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D18" s="5">
         <v>12018246225</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -5768,16 +5926,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D19" s="5">
         <v>12018246227</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -5793,16 +5951,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D20" s="5">
         <v>12018246232</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -5818,16 +5976,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D21" s="5">
         <v>12018246233</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -5843,16 +6001,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D22" s="5">
         <v>12018246235</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -5868,16 +6026,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D23" s="5">
         <v>12018246238</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -5893,16 +6051,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D24" s="5">
         <v>12018246241</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -5918,16 +6076,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D25" s="5">
         <v>12018246244</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -5943,16 +6101,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D26" s="5">
         <v>12018246252</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -5968,16 +6126,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D27" s="5">
         <v>12018246255</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -5993,16 +6151,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D28" s="5">
         <v>12018246257</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -6018,16 +6176,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D29" s="5">
         <v>12018246261</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -6043,16 +6201,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D30" s="5">
         <v>12018246262</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -6068,16 +6226,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D31" s="5">
         <v>12018246263</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -6093,16 +6251,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D32" s="5">
         <v>12018246265</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -6118,16 +6276,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D33" s="5">
         <v>12018246267</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -6143,16 +6301,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D34" s="5">
         <v>12018246268</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -6168,16 +6326,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D35" s="5">
         <v>12018246269</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -6193,16 +6351,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D36" s="5">
         <v>12018245934</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -6218,16 +6376,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D37" s="5">
         <v>12018245921</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -6243,16 +6401,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D38" s="5">
         <v>12018245948</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -6268,16 +6426,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D39" s="5">
         <v>12018245917</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -6293,16 +6451,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D40" s="5">
         <v>12017246001</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -6318,16 +6476,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D41" s="5">
         <v>12017246053</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -6459,16 +6617,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -6484,16 +6642,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>347</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -6509,16 +6667,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -6534,16 +6692,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -6559,16 +6717,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -6584,16 +6742,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -6609,16 +6767,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -6634,16 +6792,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -6659,16 +6817,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -6684,16 +6842,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -6709,16 +6867,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -6734,16 +6892,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -6759,16 +6917,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -6784,16 +6942,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -6809,16 +6967,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -6834,16 +6992,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -6859,16 +7017,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -6884,16 +7042,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -6909,16 +7067,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -6934,16 +7092,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -6959,16 +7117,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -6984,16 +7142,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -7009,16 +7167,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -7034,16 +7192,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -7059,16 +7217,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7084,16 +7242,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -7109,16 +7267,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -7134,16 +7292,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -7159,16 +7317,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -7184,16 +7342,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -7209,16 +7367,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -7234,16 +7392,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -7259,16 +7417,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D36" s="5">
         <v>12018243770</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -7284,16 +7442,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D37" s="5">
         <v>12018246571</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -7309,16 +7467,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D38" s="5">
         <v>12018245904</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -7334,16 +7492,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D39" s="5">
         <v>12018246563</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>

--- a/Grade 2018/Class Test/CT_Summary_ZW_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_ZW_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niit\Sept-2020---Jan-2021\Grade 2018\Class Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80FC1F8-EF8E-490A-809F-A68B29838A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C816276-D29B-4B9E-B239-5B7BAEA8D261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -1432,7 +1432,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1625,10 +1625,10 @@
     <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1938,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
@@ -3296,8 +3296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4560,7 +4560,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Grade 2018/Class Test/CT_Summary_ZW_2018.xlsx
+++ b/Grade 2018/Class Test/CT_Summary_ZW_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8250" activeTab="4"/>
+    <workbookView windowWidth="20760" windowHeight="9947" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -16,16 +16,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CC1!$A$2:$J$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CC2!$A$2:$J$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CC3!$A$2:$J$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NIIT1!$A$2:$J$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NIIT2!$A$2:$J$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CC3!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NIIT1!$A$2:$K$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="462">
   <si>
     <t>Student Details</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>杨彦曦</t>
+  </si>
+  <si>
+    <t>休学</t>
   </si>
   <si>
     <t>刘晗</t>
@@ -1415,13 +1418,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,17 +1463,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1482,7 +1500,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1496,15 +1542,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1520,103 +1606,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1655,25 +1651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,13 +1669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,13 +1681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,31 +1699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,13 +1723,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,7 +1771,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,49 +1819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,6 +1880,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1920,55 +1928,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1987,16 +1951,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2005,146 +1995,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2201,6 +2191,7 @@
     <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2532,17 +2523,17 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="21.5545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="13.2181818181818" customWidth="1"/>
-    <col min="7" max="9" width="13.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5545454545455" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="16.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="21.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="13.2222222222222" customWidth="1"/>
+    <col min="7" max="9" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.5555555555556" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2613,20 +2604,20 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:10">
+    <row r="4" ht="15.6" spans="1:10">
       <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="21">
         <v>12018245753</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="18">
@@ -2642,20 +2633,20 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:10">
+    <row r="5" ht="15.6" spans="1:10">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>12018245759</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="18">
@@ -2671,20 +2662,20 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:10">
+    <row r="6" ht="15.6" spans="1:10">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>12018245772</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="18">
@@ -2700,20 +2691,20 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:10">
+    <row r="7" ht="15.6" spans="1:10">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>12018245785</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="18">
@@ -2729,20 +2720,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:10">
+    <row r="8" ht="15.6" spans="1:10">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>12018245851</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="18">
@@ -2758,20 +2749,20 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:10">
+    <row r="9" ht="15.6" spans="1:10">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>12018246051</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="18">
@@ -2787,20 +2778,20 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:10">
+    <row r="10" ht="15.6" spans="1:10">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>12018246053</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="18">
@@ -2816,20 +2807,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:10">
+    <row r="11" ht="15.6" spans="1:10">
       <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="21">
         <v>12018246054</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="18">
@@ -2845,20 +2836,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:10">
+    <row r="12" ht="15.6" spans="1:10">
       <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="21">
         <v>12018246059</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="18">
@@ -2874,20 +2865,20 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:10">
+    <row r="13" ht="15.6" spans="1:10">
       <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="21">
         <v>12018246063</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="18">
@@ -2903,20 +2894,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:10">
+    <row r="14" ht="15.6" spans="1:10">
       <c r="A14" s="13">
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="21">
         <v>12018246070</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="18">
@@ -2932,20 +2923,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:10">
+    <row r="15" ht="15.6" spans="1:10">
       <c r="A15" s="13">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="21">
         <v>12018246079</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="18">
@@ -2961,20 +2952,20 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:10">
+    <row r="16" ht="15.6" spans="1:10">
       <c r="A16" s="13">
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="21">
         <v>12018246082</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="18">
@@ -2990,20 +2981,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:10">
+    <row r="17" ht="15.6" spans="1:10">
       <c r="A17" s="13">
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="21">
         <v>12018246084</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="18">
@@ -3019,20 +3010,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:10">
+    <row r="18" ht="15.6" spans="1:10">
       <c r="A18" s="13">
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="21">
         <v>12018246091</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="18">
@@ -3048,20 +3039,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:10">
+    <row r="19" ht="15.6" spans="1:10">
       <c r="A19" s="13">
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="21">
         <v>12018246094</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="18">
@@ -3077,20 +3068,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:10">
+    <row r="20" ht="15.6" spans="1:10">
       <c r="A20" s="13">
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="21">
         <v>12018246098</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="18">
@@ -3106,20 +3097,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:10">
+    <row r="21" ht="15.6" spans="1:10">
       <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="21">
         <v>12018246102</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="18">
@@ -3135,20 +3126,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:10">
+    <row r="22" ht="15.6" spans="1:10">
       <c r="A22" s="13">
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="21">
         <v>12018246103</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="18">
@@ -3164,20 +3155,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:10">
+    <row r="23" ht="15.6" spans="1:10">
       <c r="A23" s="13">
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="21">
         <v>12018246106</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="18">
@@ -3193,20 +3184,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:10">
+    <row r="24" ht="15.6" spans="1:10">
       <c r="A24" s="13">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="21">
         <v>12018246109</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F24" s="18">
@@ -3222,20 +3213,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:10">
+    <row r="25" ht="15.6" spans="1:10">
       <c r="A25" s="13">
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="21">
         <v>12018246110</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="21" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="18">
@@ -3251,20 +3242,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:10">
+    <row r="26" ht="15.6" spans="1:10">
       <c r="A26" s="13">
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="21">
         <v>12018246112</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="18">
@@ -3280,20 +3271,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:10">
+    <row r="27" ht="15.6" spans="1:10">
       <c r="A27" s="13">
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="21">
         <v>12018246115</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="21" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="18">
@@ -3309,20 +3300,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:10">
+    <row r="28" ht="15.6" spans="1:10">
       <c r="A28" s="13">
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="21">
         <v>12018246121</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F28" s="18">
@@ -3338,20 +3329,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:10">
+    <row r="29" ht="15.6" spans="1:10">
       <c r="A29" s="13">
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="21">
         <v>12018246124</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="21" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="18">
@@ -3367,20 +3358,20 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:10">
+    <row r="30" ht="15.6" spans="1:10">
       <c r="A30" s="13">
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="21">
         <v>12018246125</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="21" t="s">
         <v>67</v>
       </c>
       <c r="F30" s="18">
@@ -3396,20 +3387,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:10">
+    <row r="31" ht="15.6" spans="1:10">
       <c r="A31" s="13">
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="21">
         <v>12018246127</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F31" s="18">
@@ -3425,20 +3416,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:10">
+    <row r="32" ht="15.6" spans="1:10">
       <c r="A32" s="13">
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="21">
         <v>12018246129</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="21" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="18">
@@ -3454,20 +3445,20 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:10">
+    <row r="33" ht="15.6" spans="1:10">
       <c r="A33" s="13">
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="21">
         <v>12018246135</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F33" s="18">
@@ -3483,20 +3474,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:10">
+    <row r="34" ht="15.6" spans="1:10">
       <c r="A34" s="13">
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="21">
         <v>12018246136</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="21" t="s">
         <v>75</v>
       </c>
       <c r="F34" s="18">
@@ -3512,20 +3503,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:10">
+    <row r="35" ht="15.6" spans="1:10">
       <c r="A35" s="13">
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="21">
         <v>12018246137</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="21" t="s">
         <v>77</v>
       </c>
       <c r="F35" s="18">
@@ -3541,20 +3532,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:10">
+    <row r="36" ht="15.6" spans="1:10">
       <c r="A36" s="13">
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="21">
         <v>12018246140</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="21" t="s">
         <v>79</v>
       </c>
       <c r="F36" s="18"/>
@@ -3566,20 +3557,20 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:10">
+    <row r="37" ht="15.6" spans="1:10">
       <c r="A37" s="13">
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="20">
+      <c r="C37" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="21">
         <v>12018246142</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="21" t="s">
         <v>81</v>
       </c>
       <c r="F37" s="18">
@@ -3595,20 +3586,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:10">
+    <row r="38" ht="15.6" spans="1:10">
       <c r="A38" s="13">
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="21">
         <v>12018246150</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="21" t="s">
         <v>83</v>
       </c>
       <c r="F38" s="18">
@@ -3624,20 +3615,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:10">
+    <row r="39" ht="15.6" spans="1:10">
       <c r="A39" s="13">
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="21">
         <v>12018246159</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="21" t="s">
         <v>85</v>
       </c>
       <c r="F39" s="18">
@@ -3653,20 +3644,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:10">
+    <row r="40" ht="15.6" spans="1:10">
       <c r="A40" s="13">
         <v>37</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="21">
         <v>12018246160</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="21" t="s">
         <v>87</v>
       </c>
       <c r="F40" s="18">
@@ -3682,20 +3673,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:10">
+    <row r="41" ht="15.6" spans="1:10">
       <c r="A41" s="13">
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="21">
         <v>12018246164</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="21" t="s">
         <v>89</v>
       </c>
       <c r="F41" s="18">
@@ -3711,20 +3702,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:10">
+    <row r="42" ht="15.6" spans="1:10">
       <c r="A42" s="13">
         <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="20">
+      <c r="C42" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="21">
         <v>12018246166</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="21" t="s">
         <v>91</v>
       </c>
       <c r="F42" s="18">
@@ -3740,20 +3731,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:10">
+    <row r="43" ht="15.6" spans="1:10">
       <c r="A43" s="13">
         <v>40</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="21">
         <v>12018246169</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="21" t="s">
         <v>93</v>
       </c>
       <c r="F43" s="18">
@@ -3769,20 +3760,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:10">
+    <row r="44" ht="15.6" spans="1:10">
       <c r="A44" s="13">
         <v>41</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="21">
         <v>12017245655</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="21" t="s">
         <v>95</v>
       </c>
       <c r="F44" s="18">
@@ -3798,20 +3789,20 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:10">
+    <row r="45" ht="15.6" spans="1:10">
       <c r="A45" s="13">
         <v>42</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="21">
         <v>12017245779</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="21" t="s">
         <v>97</v>
       </c>
       <c r="F45" s="18">
@@ -3827,20 +3818,20 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:10">
+    <row r="46" ht="15.6" spans="1:10">
       <c r="A46" s="13">
         <v>43</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="21">
         <v>12016246281</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="21" t="s">
         <v>99</v>
       </c>
       <c r="F46" s="18">
@@ -3892,17 +3883,17 @@
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="21.5545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="13.2181818181818" customWidth="1"/>
-    <col min="7" max="9" width="13.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5545454545455" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="16.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="21.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="13.2222222222222" customWidth="1"/>
+    <col min="7" max="9" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.5555555555556" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5160,23 +5151,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="21.5545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1090909090909" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="16.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="21.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="9" width="13.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5545454545455" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.4454545454545" customWidth="1"/>
+    <col min="7" max="9" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.5555555555556" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5247,7 +5238,7 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -5266,15 +5257,20 @@
       <c r="F4" s="18">
         <v>80</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="18">
+        <v>90</v>
+      </c>
+      <c r="H4" s="18">
+        <v>80</v>
+      </c>
       <c r="I4" s="18"/>
       <c r="J4" s="19">
-        <f t="shared" ref="J4:J40" si="0">AVERAGE(F4:I4)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <f>AVERAGE(F4:I4)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -5293,15 +5289,20 @@
       <c r="F5" s="18">
         <v>80</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="18">
+        <v>90</v>
+      </c>
+      <c r="H5" s="18">
+        <v>80</v>
+      </c>
       <c r="I5" s="18"/>
       <c r="J5" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <f>AVERAGE(F5:I5)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -5320,15 +5321,20 @@
       <c r="F6" s="18">
         <v>80</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="18">
+        <v>90</v>
+      </c>
+      <c r="H6" s="18">
+        <v>80</v>
+      </c>
       <c r="I6" s="18"/>
       <c r="J6" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <f>AVERAGE(F6:I6)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5347,15 +5353,20 @@
       <c r="F7" s="18">
         <v>87</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18">
+        <v>70</v>
+      </c>
+      <c r="H7" s="18">
+        <v>70</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <f>AVERAGE(F7:I7)</f>
+        <v>75.6666666666667</v>
+      </c>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -5374,15 +5385,20 @@
       <c r="F8" s="18">
         <v>80</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="18">
+        <v>80</v>
+      </c>
+      <c r="H8" s="18">
+        <v>70</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <f>AVERAGE(F8:I8)</f>
+        <v>76.6666666666667</v>
+      </c>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -5401,15 +5417,20 @@
       <c r="F9" s="18">
         <v>80</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="18">
+        <v>90</v>
+      </c>
+      <c r="H9" s="18">
+        <v>80</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <f>AVERAGE(F9:I9)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -5428,15 +5449,20 @@
       <c r="F10" s="18">
         <v>80</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18">
+        <v>90</v>
+      </c>
+      <c r="H10" s="18">
+        <v>90</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <f>AVERAGE(F10:I10)</f>
+        <v>86.6666666666667</v>
+      </c>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -5455,15 +5481,20 @@
       <c r="F11" s="18">
         <v>80</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18">
+        <v>80</v>
+      </c>
+      <c r="H11" s="18">
+        <v>70</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <f>AVERAGE(F11:I11)</f>
+        <v>76.6666666666667</v>
+      </c>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -5482,15 +5513,20 @@
       <c r="F12" s="18">
         <v>73</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="18">
+        <v>70</v>
+      </c>
+      <c r="H12" s="18">
+        <v>80</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <f>AVERAGE(F12:I12)</f>
+        <v>74.3333333333333</v>
+      </c>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -5509,15 +5545,20 @@
       <c r="F13" s="18">
         <v>80</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="18">
+        <v>90</v>
+      </c>
+      <c r="H13" s="18">
+        <v>90</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <f>AVERAGE(F13:I13)</f>
+        <v>86.6666666666667</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -5536,15 +5577,20 @@
       <c r="F14" s="18">
         <v>80</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18">
+        <v>80</v>
+      </c>
+      <c r="H14" s="18">
+        <v>80</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <f>AVERAGE(F14:I14)</f>
+        <v>80</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -5563,15 +5609,20 @@
       <c r="F15" s="18">
         <v>73</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="18">
+        <v>100</v>
+      </c>
+      <c r="H15" s="18">
+        <v>80</v>
+      </c>
       <c r="I15" s="18"/>
       <c r="J15" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <f>AVERAGE(F15:I15)</f>
+        <v>84.3333333333333</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -5590,15 +5641,20 @@
       <c r="F16" s="18">
         <v>73</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="18">
+        <v>90</v>
+      </c>
+      <c r="H16" s="18">
+        <v>90</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="J16" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <f>AVERAGE(F16:I16)</f>
+        <v>84.3333333333333</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -5617,15 +5673,20 @@
       <c r="F17" s="18">
         <v>80</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="18">
+        <v>80</v>
+      </c>
+      <c r="H17" s="18">
+        <v>80</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <f>AVERAGE(F17:I17)</f>
+        <v>80</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -5644,15 +5705,20 @@
       <c r="F18" s="18">
         <v>80</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="18">
+        <v>70</v>
+      </c>
+      <c r="H18" s="18">
+        <v>80</v>
+      </c>
       <c r="I18" s="18"/>
       <c r="J18" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <f>AVERAGE(F18:I18)</f>
+        <v>76.6666666666667</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -5671,15 +5737,20 @@
       <c r="F19" s="18">
         <v>73</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="18">
+        <v>100</v>
+      </c>
+      <c r="H19" s="18">
+        <v>80</v>
+      </c>
       <c r="I19" s="18"/>
       <c r="J19" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <f>AVERAGE(F19:I19)</f>
+        <v>84.3333333333333</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -5698,15 +5769,20 @@
       <c r="F20" s="18">
         <v>80</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="G20" s="18">
+        <v>90</v>
+      </c>
+      <c r="H20" s="18">
+        <v>80</v>
+      </c>
       <c r="I20" s="18"/>
       <c r="J20" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <f>AVERAGE(F20:I20)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -5725,15 +5801,20 @@
       <c r="F21" s="18">
         <v>67</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18">
+        <v>70</v>
+      </c>
+      <c r="H21" s="18">
+        <v>80</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <f>AVERAGE(F21:I21)</f>
+        <v>72.3333333333333</v>
+      </c>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -5752,15 +5833,20 @@
       <c r="F22" s="18">
         <v>80</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="18">
+        <v>90</v>
+      </c>
+      <c r="H22" s="18">
+        <v>60</v>
+      </c>
       <c r="I22" s="18"/>
       <c r="J22" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <f>AVERAGE(F22:I22)</f>
+        <v>76.6666666666667</v>
+      </c>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -5779,15 +5865,20 @@
       <c r="F23" s="18">
         <v>87</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="18">
+        <v>90</v>
+      </c>
+      <c r="H23" s="18">
+        <v>90</v>
+      </c>
       <c r="I23" s="18"/>
       <c r="J23" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <f>AVERAGE(F23:I23)</f>
+        <v>89</v>
+      </c>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -5806,15 +5897,20 @@
       <c r="F24" s="18">
         <v>67</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="G24" s="18">
+        <v>90</v>
+      </c>
+      <c r="H24" s="18">
+        <v>70</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <f>AVERAGE(F24:I24)</f>
+        <v>75.6666666666667</v>
+      </c>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -5833,15 +5929,20 @@
       <c r="F25" s="18">
         <v>87</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="18">
+        <v>90</v>
+      </c>
+      <c r="H25" s="18">
+        <v>80</v>
+      </c>
       <c r="I25" s="18"/>
       <c r="J25" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <f>AVERAGE(F25:I25)</f>
+        <v>85.6666666666667</v>
+      </c>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -5860,15 +5961,20 @@
       <c r="F26" s="18">
         <v>80</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="G26" s="18">
+        <v>70</v>
+      </c>
+      <c r="H26" s="18">
+        <v>80</v>
+      </c>
       <c r="I26" s="18"/>
       <c r="J26" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <f>AVERAGE(F26:I26)</f>
+        <v>76.6666666666667</v>
+      </c>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -5884,18 +5990,23 @@
       <c r="E27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="F27" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>262</v>
+      </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="19" t="e">
+        <f>AVERAGE(F27:I27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -5903,26 +6014,31 @@
         <v>215</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D28" s="15">
         <v>12018246126</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F28" s="18">
         <v>73</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="G28" s="18">
+        <v>90</v>
+      </c>
+      <c r="H28" s="18">
+        <v>80</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <f>AVERAGE(F28:I28)</f>
+        <v>81</v>
+      </c>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -5930,26 +6046,31 @@
         <v>215</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D29" s="15">
         <v>12018246133</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F29" s="18">
         <v>87</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="G29" s="18">
+        <v>90</v>
+      </c>
+      <c r="H29" s="18">
+        <v>70</v>
+      </c>
       <c r="I29" s="18"/>
       <c r="J29" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <f>AVERAGE(F29:I29)</f>
+        <v>82.3333333333333</v>
+      </c>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="13">
         <v>27</v>
       </c>
@@ -5957,7 +6078,7 @@
         <v>215</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D30" s="15">
         <v>12018246141</v>
@@ -5968,15 +6089,20 @@
       <c r="F30" s="18">
         <v>80</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="G30" s="18">
+        <v>80</v>
+      </c>
+      <c r="H30" s="18">
+        <v>80</v>
+      </c>
       <c r="I30" s="18"/>
       <c r="J30" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <f>AVERAGE(F30:I30)</f>
+        <v>80</v>
+      </c>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="13">
         <v>28</v>
       </c>
@@ -5984,26 +6110,31 @@
         <v>215</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D31" s="15">
         <v>12018246146</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F31" s="18">
         <v>87</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="G31" s="18">
+        <v>90</v>
+      </c>
+      <c r="H31" s="18">
+        <v>70</v>
+      </c>
       <c r="I31" s="18"/>
       <c r="J31" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <f>AVERAGE(F31:I31)</f>
+        <v>82.3333333333333</v>
+      </c>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="13">
         <v>29</v>
       </c>
@@ -6011,26 +6142,31 @@
         <v>215</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D32" s="15">
         <v>12018246148</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F32" s="18">
         <v>87</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="G32" s="18">
+        <v>70</v>
+      </c>
+      <c r="H32" s="18">
+        <v>80</v>
+      </c>
       <c r="I32" s="18"/>
       <c r="J32" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <f>AVERAGE(F32:I32)</f>
+        <v>79</v>
+      </c>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="13">
         <v>30</v>
       </c>
@@ -6038,26 +6174,31 @@
         <v>215</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D33" s="15">
         <v>12018246151</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F33" s="18">
         <v>67</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="18">
+        <v>90</v>
+      </c>
+      <c r="H33" s="18">
+        <v>80</v>
+      </c>
       <c r="I33" s="18"/>
       <c r="J33" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <f>AVERAGE(F33:I33)</f>
+        <v>79</v>
+      </c>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="13">
         <v>31</v>
       </c>
@@ -6065,26 +6206,31 @@
         <v>215</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D34" s="15">
         <v>12018246154</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F34" s="18">
         <v>80</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="G34" s="18">
+        <v>80</v>
+      </c>
+      <c r="H34" s="18">
+        <v>80</v>
+      </c>
       <c r="I34" s="18"/>
       <c r="J34" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <f>AVERAGE(F34:I34)</f>
+        <v>80</v>
+      </c>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="13">
         <v>32</v>
       </c>
@@ -6092,26 +6238,31 @@
         <v>215</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D35" s="15">
         <v>12018246155</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F35" s="18">
         <v>67</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="G35" s="18">
+        <v>90</v>
+      </c>
+      <c r="H35" s="18">
+        <v>70</v>
+      </c>
       <c r="I35" s="18"/>
       <c r="J35" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" ht="16.05" customHeight="1" spans="1:10">
+        <f>AVERAGE(F35:I35)</f>
+        <v>75.6666666666667</v>
+      </c>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" ht="16.05" customHeight="1" spans="1:11">
       <c r="A36" s="13">
         <v>33</v>
       </c>
@@ -6119,26 +6270,31 @@
         <v>215</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D36" s="15">
         <v>12018246163</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F36" s="18">
         <v>73</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="G36" s="18">
+        <v>90</v>
+      </c>
+      <c r="H36" s="18">
+        <v>90</v>
+      </c>
       <c r="I36" s="18"/>
       <c r="J36" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <f>AVERAGE(F36:I36)</f>
+        <v>84.3333333333333</v>
+      </c>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="13">
         <v>34</v>
       </c>
@@ -6146,7 +6302,7 @@
         <v>215</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D37" s="15">
         <v>12018246165</v>
@@ -6157,15 +6313,20 @@
       <c r="F37" s="18">
         <v>87</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="G37" s="18">
+        <v>90</v>
+      </c>
+      <c r="H37" s="18">
+        <v>80</v>
+      </c>
       <c r="I37" s="18"/>
       <c r="J37" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <f>AVERAGE(F37:I37)</f>
+        <v>85.6666666666667</v>
+      </c>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="13">
         <v>35</v>
       </c>
@@ -6173,26 +6334,31 @@
         <v>215</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D38" s="15">
         <v>12018246168</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F38" s="18">
         <v>87</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="G38" s="18">
+        <v>90</v>
+      </c>
+      <c r="H38" s="18">
+        <v>90</v>
+      </c>
       <c r="I38" s="18"/>
       <c r="J38" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <f>AVERAGE(F38:I38)</f>
+        <v>89</v>
+      </c>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="13">
         <v>36</v>
       </c>
@@ -6200,26 +6366,31 @@
         <v>215</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D39" s="15">
         <v>12018245775</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F39" s="18">
         <v>80</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="18">
+        <v>90</v>
+      </c>
+      <c r="H39" s="18">
+        <v>80</v>
+      </c>
       <c r="I39" s="18"/>
       <c r="J39" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <f>AVERAGE(F39:I39)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="13">
         <v>37</v>
       </c>
@@ -6227,24 +6398,29 @@
         <v>215</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D40" s="15">
         <v>12018246548</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F40" s="18">
         <v>53</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="G40" s="18">
+        <v>70</v>
+      </c>
+      <c r="H40" s="18">
+        <v>60</v>
+      </c>
       <c r="I40" s="18"/>
       <c r="J40" s="19">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
+        <f>AVERAGE(F40:I40)</f>
+        <v>61</v>
+      </c>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="13">
@@ -6254,26 +6430,30 @@
         <v>215</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D41" s="15">
         <v>12017245858</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F41" s="18">
         <v>87</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="G41" s="18">
+        <v>90</v>
+      </c>
+      <c r="H41" s="18">
+        <v>80</v>
+      </c>
       <c r="I41" s="18"/>
       <c r="J41" s="19">
-        <f t="shared" ref="J41:J42" si="1">AVERAGE(F41:I41)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <f t="shared" ref="J41:J42" si="0">AVERAGE(F41:I41)</f>
+        <v>85.6666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -6281,32 +6461,31 @@
         <v>215</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D42" s="15">
         <v>12017245867</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F42" s="18">
         <v>80</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="G42" s="18">
+        <v>90</v>
+      </c>
+      <c r="H42" s="18">
+        <v>80</v>
+      </c>
       <c r="I42" s="18"/>
       <c r="J42" s="19">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
+        <f>AVERAGE(F42:I42)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K42" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J42">
-    <sortState ref="A2:J42">
-      <sortCondition ref="C2:C3"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:J1"/>
@@ -6331,23 +6510,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="21.5545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="13.2181818181818" customWidth="1"/>
-    <col min="7" max="9" width="13.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5545454545455" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="16.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="21.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="13.2222222222222" customWidth="1"/>
+    <col min="7" max="9" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.5555555555556" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6418,393 +6597,463 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D4" s="15">
         <v>12018246201</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F4" s="18">
         <v>67</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="18">
+        <v>90</v>
+      </c>
+      <c r="H4" s="18">
+        <v>80</v>
+      </c>
       <c r="I4" s="18"/>
       <c r="J4" s="19">
-        <f t="shared" ref="J4:J39" si="0">AVERAGE(F4:I4)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <f>AVERAGE(F4:I4)</f>
+        <v>79</v>
+      </c>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D5" s="15">
         <v>12018246204</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F5" s="18">
         <v>73</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="18">
+        <v>90</v>
+      </c>
+      <c r="H5" s="18">
+        <v>100</v>
+      </c>
       <c r="I5" s="18"/>
       <c r="J5" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <f>AVERAGE(F5:I5)</f>
+        <v>87.6666666666667</v>
+      </c>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D6" s="15">
         <v>12018246206</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F6" s="18">
         <v>67</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="18">
+        <v>90</v>
+      </c>
+      <c r="H6" s="18">
+        <v>100</v>
+      </c>
       <c r="I6" s="18"/>
       <c r="J6" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <f>AVERAGE(F6:I6)</f>
+        <v>85.6666666666667</v>
+      </c>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D7" s="15">
         <v>12018246207</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F7" s="18">
         <v>80</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18">
+        <v>70</v>
+      </c>
+      <c r="H7" s="18">
+        <v>90</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <f>AVERAGE(F7:I7)</f>
+        <v>80</v>
+      </c>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D8" s="15">
         <v>12018246208</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F8" s="18">
         <v>60</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="18">
+        <v>90</v>
+      </c>
+      <c r="H8" s="18">
+        <v>80</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <f>AVERAGE(F8:I8)</f>
+        <v>76.6666666666667</v>
+      </c>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D9" s="15">
         <v>12018246210</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F9" s="18">
         <v>67</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="18">
+        <v>90</v>
+      </c>
+      <c r="H9" s="18">
+        <v>80</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <f>AVERAGE(F9:I9)</f>
+        <v>79</v>
+      </c>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D10" s="15">
         <v>12018246212</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F10" s="18">
         <v>73</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18">
+        <v>90</v>
+      </c>
+      <c r="H10" s="18">
+        <v>90</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <f>AVERAGE(F10:I10)</f>
+        <v>84.3333333333333</v>
+      </c>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D11" s="15">
         <v>12018246215</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F11" s="18">
         <v>67</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18">
+        <v>90</v>
+      </c>
+      <c r="H11" s="18">
+        <v>60</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <f>AVERAGE(F11:I11)</f>
+        <v>72.3333333333333</v>
+      </c>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D12" s="15">
         <v>12018246217</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F12" s="18">
         <v>87</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="18">
+        <v>90</v>
+      </c>
+      <c r="H12" s="18">
+        <v>90</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <f>AVERAGE(F12:I12)</f>
+        <v>89</v>
+      </c>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D13" s="15">
         <v>12018246219</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F13" s="18">
         <v>80</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="18">
+        <v>80</v>
+      </c>
+      <c r="H13" s="18">
+        <v>100</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <f>AVERAGE(F13:I13)</f>
+        <v>86.6666666666667</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="13">
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D14" s="15">
         <v>12018246220</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F14" s="18">
         <v>73</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18">
+        <v>90</v>
+      </c>
+      <c r="H14" s="18">
+        <v>90</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <f>AVERAGE(F14:I14)</f>
+        <v>84.3333333333333</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="13">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D15" s="15">
         <v>12018246221</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F15" s="18">
         <v>60</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="18">
+        <v>90</v>
+      </c>
+      <c r="H15" s="18">
+        <v>100</v>
+      </c>
       <c r="I15" s="18"/>
       <c r="J15" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <f>AVERAGE(F15:I15)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="13">
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D16" s="15">
         <v>12018246222</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F16" s="18">
         <v>60</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="18">
+        <v>90</v>
+      </c>
+      <c r="H16" s="18">
+        <v>100</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="J16" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <f>AVERAGE(F16:I16)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="13">
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D17" s="15">
         <v>12018246223</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F17" s="18">
         <v>60</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="18">
+        <v>80</v>
+      </c>
+      <c r="H17" s="18">
+        <v>100</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <f>AVERAGE(F17:I17)</f>
+        <v>80</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="13">
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D18" s="15">
         <v>12018246225</v>
@@ -6815,50 +7064,60 @@
       <c r="F18" s="18">
         <v>67</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="18">
+        <v>80</v>
+      </c>
+      <c r="H18" s="18">
+        <v>100</v>
+      </c>
       <c r="I18" s="18"/>
       <c r="J18" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <f>AVERAGE(F18:I18)</f>
+        <v>82.3333333333333</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="13">
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D19" s="15">
         <v>12018246227</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F19" s="18">
         <v>60</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="18">
+        <v>80</v>
+      </c>
+      <c r="H19" s="18">
+        <v>90</v>
+      </c>
       <c r="I19" s="18"/>
       <c r="J19" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <f>AVERAGE(F19:I19)</f>
+        <v>76.6666666666667</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="13">
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D20" s="15">
         <v>12018246232</v>
@@ -6869,158 +7128,188 @@
       <c r="F20" s="18">
         <v>73</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="G20" s="18">
+        <v>90</v>
+      </c>
+      <c r="H20" s="18">
+        <v>90</v>
+      </c>
       <c r="I20" s="18"/>
       <c r="J20" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <f>AVERAGE(F20:I20)</f>
+        <v>84.3333333333333</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D21" s="15">
         <v>12018246233</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F21" s="18">
         <v>67</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18">
+        <v>70</v>
+      </c>
+      <c r="H21" s="18">
+        <v>100</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <f>AVERAGE(F21:I21)</f>
+        <v>79</v>
+      </c>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="13">
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D22" s="15">
         <v>12018246235</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F22" s="18">
         <v>87</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="18">
+        <v>90</v>
+      </c>
+      <c r="H22" s="18">
+        <v>90</v>
+      </c>
       <c r="I22" s="18"/>
       <c r="J22" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <f>AVERAGE(F22:I22)</f>
+        <v>89</v>
+      </c>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="13">
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D23" s="15">
         <v>12018246238</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F23" s="18">
         <v>80</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="18">
+        <v>90</v>
+      </c>
+      <c r="H23" s="18">
+        <v>90</v>
+      </c>
       <c r="I23" s="18"/>
       <c r="J23" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <f>AVERAGE(F23:I23)</f>
+        <v>86.6666666666667</v>
+      </c>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="13">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D24" s="15">
         <v>12018246241</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F24" s="18">
         <v>53</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="G24" s="18">
+        <v>80</v>
+      </c>
+      <c r="H24" s="18">
+        <v>90</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="19">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <f>AVERAGE(F24:I24)</f>
+        <v>74.3333333333333</v>
+      </c>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="13">
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D25" s="15">
         <v>12018246244</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F25" s="18">
         <v>80</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="18">
+        <v>80</v>
+      </c>
+      <c r="H25" s="18">
+        <v>90</v>
+      </c>
       <c r="I25" s="18"/>
       <c r="J25" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <f>AVERAGE(F25:I25)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="13">
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D26" s="15">
         <v>12018246252</v>
@@ -7031,77 +7320,92 @@
       <c r="F26" s="18">
         <v>53</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="G26" s="18">
+        <v>70</v>
+      </c>
+      <c r="H26" s="18">
+        <v>90</v>
+      </c>
       <c r="I26" s="18"/>
       <c r="J26" s="19">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <f>AVERAGE(F26:I26)</f>
+        <v>71</v>
+      </c>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="13">
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D27" s="15">
         <v>12018246255</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F27" s="18">
         <v>67</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="G27" s="18">
+        <v>90</v>
+      </c>
+      <c r="H27" s="18">
+        <v>80</v>
+      </c>
       <c r="I27" s="18"/>
       <c r="J27" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <f>AVERAGE(F27:I27)</f>
+        <v>79</v>
+      </c>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="13">
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D28" s="15">
         <v>12018246257</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F28" s="18">
         <v>87</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="G28" s="18">
+        <v>90</v>
+      </c>
+      <c r="H28" s="18">
+        <v>100</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <f>AVERAGE(F28:I28)</f>
+        <v>92.3333333333333</v>
+      </c>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="13">
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D29" s="15">
         <v>12018246261</v>
@@ -7112,345 +7416,404 @@
       <c r="F29" s="18">
         <v>60</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="G29" s="18">
+        <v>90</v>
+      </c>
+      <c r="H29" s="18">
+        <v>100</v>
+      </c>
       <c r="I29" s="18"/>
       <c r="J29" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <f>AVERAGE(F29:I29)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="13">
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D30" s="15">
         <v>12018246262</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F30" s="18">
         <v>67</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="G30" s="18">
+        <v>90</v>
+      </c>
+      <c r="H30" s="18">
+        <v>100</v>
+      </c>
       <c r="I30" s="18"/>
       <c r="J30" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <f>AVERAGE(F30:I30)</f>
+        <v>85.6666666666667</v>
+      </c>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="13">
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D31" s="15">
         <v>12018246263</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F31" s="18">
         <v>87</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="G31" s="18">
+        <v>90</v>
+      </c>
+      <c r="H31" s="18">
+        <v>100</v>
+      </c>
       <c r="I31" s="18"/>
       <c r="J31" s="19">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <f>AVERAGE(F31:I31)</f>
+        <v>92.3333333333333</v>
+      </c>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="13">
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D32" s="15">
         <v>12018246265</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F32" s="18">
         <v>73</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="G32" s="18">
+        <v>90</v>
+      </c>
+      <c r="H32" s="18">
+        <v>100</v>
+      </c>
       <c r="I32" s="18"/>
       <c r="J32" s="19">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <f>AVERAGE(F32:I32)</f>
+        <v>87.6666666666667</v>
+      </c>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="13">
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D33" s="15">
         <v>12018246267</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F33" s="18">
         <v>67</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="18">
+        <v>90</v>
+      </c>
+      <c r="H33" s="18">
+        <v>100</v>
+      </c>
       <c r="I33" s="18"/>
       <c r="J33" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <f>AVERAGE(F33:I33)</f>
+        <v>85.6666666666667</v>
+      </c>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="13">
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D34" s="15">
         <v>12018246268</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F34" s="18">
         <v>67</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="G34" s="18">
+        <v>90</v>
+      </c>
+      <c r="H34" s="18">
+        <v>100</v>
+      </c>
       <c r="I34" s="18"/>
       <c r="J34" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <f>AVERAGE(F34:I34)</f>
+        <v>85.6666666666667</v>
+      </c>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="13">
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D35" s="15">
         <v>12018246269</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F35" s="18">
         <v>67</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="G35" s="18">
+        <v>90</v>
+      </c>
+      <c r="H35" s="18">
+        <v>80</v>
+      </c>
       <c r="I35" s="18"/>
       <c r="J35" s="19">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <f>AVERAGE(F35:I35)</f>
+        <v>79</v>
+      </c>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="13">
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D36" s="15">
         <v>12018245934</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F36" s="18">
         <v>53</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="G36" s="18">
+        <v>90</v>
+      </c>
+      <c r="H36" s="18">
+        <v>100</v>
+      </c>
       <c r="I36" s="18"/>
       <c r="J36" s="19">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <f>AVERAGE(F36:I36)</f>
+        <v>81</v>
+      </c>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="13">
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D37" s="15">
         <v>12018245921</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F37" s="18">
         <v>53</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="G37" s="18">
+        <v>80</v>
+      </c>
+      <c r="H37" s="18">
+        <v>100</v>
+      </c>
       <c r="I37" s="18"/>
       <c r="J37" s="19">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <f>AVERAGE(F37:I37)</f>
+        <v>77.6666666666667</v>
+      </c>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="13">
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D38" s="15">
         <v>12018245948</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F38" s="18">
         <v>60</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="G38" s="18">
+        <v>90</v>
+      </c>
+      <c r="H38" s="18">
+        <v>100</v>
+      </c>
       <c r="I38" s="18"/>
       <c r="J38" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <f>AVERAGE(F38:I38)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="13">
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D39" s="15">
         <v>12018245917</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F39" s="18">
         <v>47</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="18">
+        <v>90</v>
+      </c>
+      <c r="H39" s="18">
+        <v>100</v>
+      </c>
       <c r="I39" s="18"/>
       <c r="J39" s="19">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <f>AVERAGE(F39:I39)</f>
+        <v>79</v>
+      </c>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="13">
         <v>37</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D40" s="15">
         <v>12017246001</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F40" s="18">
         <v>67</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="G40" s="18">
+        <v>90</v>
+      </c>
+      <c r="H40" s="18">
+        <v>90</v>
+      </c>
       <c r="I40" s="18"/>
       <c r="J40" s="19">
-        <f t="shared" ref="J40:J41" si="1">AVERAGE(F40:I40)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <f>AVERAGE(F40:I40)</f>
+        <v>82.3333333333333</v>
+      </c>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="13">
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D41" s="15">
         <v>12017246053</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F41" s="18">
         <v>80</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="G41" s="18">
+        <v>70</v>
+      </c>
+      <c r="H41" s="18">
+        <v>100</v>
+      </c>
       <c r="I41" s="18"/>
       <c r="J41" s="19">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
+        <f>AVERAGE(F41:I41)</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K41" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J41">
-    <sortState ref="A2:J41">
-      <sortCondition ref="C2:C3"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:J1"/>
@@ -7477,21 +7840,21 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="21.5545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1090909090909" customWidth="1"/>
-    <col min="6" max="6" width="13.2181818181818" customWidth="1"/>
-    <col min="7" max="9" width="13.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5545454545455" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="16.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="21.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="13.2222222222222" customWidth="1"/>
+    <col min="7" max="9" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.5555555555556" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7567,16 +7930,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F4" s="16">
         <v>80</v>
@@ -7595,16 +7958,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F5" s="16">
         <v>66.6666666666667</v>
@@ -7623,16 +7986,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -7647,16 +8010,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F7" s="16">
         <v>66.6666666666667</v>
@@ -7675,16 +8038,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F8" s="16">
         <v>66.6666666666667</v>
@@ -7703,16 +8066,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F9" s="16">
         <v>80</v>
@@ -7731,16 +8094,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F10" s="16">
         <v>80</v>
@@ -7759,16 +8122,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F11" s="16">
         <v>40</v>
@@ -7787,16 +8150,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F12" s="16">
         <v>80</v>
@@ -7815,16 +8178,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="16">
         <v>80</v>
@@ -7843,13 +8206,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>45</v>
@@ -7871,16 +8234,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F15" s="16">
         <v>73.3333333333333</v>
@@ -7899,16 +8262,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F16" s="16">
         <v>73.3333333333333</v>
@@ -7927,16 +8290,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F17" s="16">
         <v>80</v>
@@ -7955,16 +8318,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F18" s="16">
         <v>73.3333333333333</v>
@@ -7983,13 +8346,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>59</v>
@@ -8011,16 +8374,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F20" s="16">
         <v>33.3333333333333</v>
@@ -8039,16 +8402,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F21" s="16">
         <v>80</v>
@@ -8067,16 +8430,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F22" s="16">
         <v>80</v>
@@ -8095,16 +8458,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F23" s="16">
         <v>66.6666666666667</v>
@@ -8123,16 +8486,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F24" s="16">
         <v>80</v>
@@ -8151,13 +8514,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>75</v>
@@ -8179,16 +8542,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F26" s="16">
         <v>80</v>
@@ -8207,16 +8570,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F27" s="16">
         <v>53.3333333333333</v>
@@ -8235,16 +8598,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F28" s="16">
         <v>73.3333333333333</v>
@@ -8263,16 +8626,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F29" s="16">
         <v>80</v>
@@ -8291,16 +8654,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F30" s="16">
         <v>80</v>
@@ -8319,16 +8682,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F31" s="16">
         <v>86.6666666666667</v>
@@ -8347,16 +8710,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F32" s="16">
         <v>46.6666666666667</v>
@@ -8375,16 +8738,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F33" s="16">
         <v>46.6666666666667</v>
@@ -8403,16 +8766,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F34" s="16">
         <v>73.3333333333333</v>
@@ -8431,16 +8794,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F35" s="16">
         <v>73.3333333333333</v>
@@ -8459,16 +8822,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D36" s="15">
         <v>12018243770</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F36" s="16">
         <v>60</v>
@@ -8487,10 +8850,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D37" s="15">
         <v>12018246571</v>
@@ -8515,16 +8878,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D38" s="15">
         <v>12018245904</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -8539,16 +8902,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D39" s="15">
         <v>12018246563</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F39" s="16">
         <v>80</v>
